--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_16_28.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_16_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>726130.1994137141</v>
+        <v>721683.7765651147</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>29913606.07986709</v>
+        <v>29913606.07986708</v>
       </c>
     </row>
     <row r="8">
@@ -1372,16 +1372,16 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>318.5343067140969</v>
+        <v>33.80570320126266</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
         <v>398.2657302332918</v>
@@ -1420,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>57.06632804309218</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>255.6089649852995</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="12">
@@ -1527,19 +1527,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
-        <v>164.546123788675</v>
+        <v>36.46845440618716</v>
       </c>
       <c r="F13" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>163.6838381111991</v>
@@ -1548,7 +1548,7 @@
         <v>134.26258275451</v>
       </c>
       <c r="I13" t="n">
-        <v>71.38780296833761</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>5.626053133425557</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>152.5650864830671</v>
@@ -1584,19 +1584,19 @@
         <v>237.0153716433569</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>277.3329370021073</v>
       </c>
       <c r="V13" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W13" t="n">
-        <v>176.1546893974572</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X13" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="14">
@@ -1609,19 +1609,19 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>421.717170453621</v>
+        <v>222.4690527861091</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>398.2657302332918</v>
       </c>
       <c r="H14" t="n">
         <v>274.1005558094662</v>
@@ -1660,13 +1660,13 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>209.8302460968812</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>57.90456843071789</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>96.73441034978975</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1779,10 +1779,10 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
-        <v>163.6838381111991</v>
+        <v>104.5381882752687</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>134.26258275451</v>
       </c>
       <c r="I16" t="n">
         <v>71.38780296833761</v>
@@ -1812,19 +1812,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>5.626053133425543</v>
+        <v>5.626053133425557</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>152.5650864830671</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>237.0153716433569</v>
       </c>
       <c r="U16" t="n">
-        <v>277.3329370021073</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>272.1038797892121</v>
@@ -1846,16 +1846,16 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D17" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F17" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -1894,22 +1894,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>57.06632804309218</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>209.8302460968812</v>
       </c>
       <c r="U17" t="n">
-        <v>255.6089649852995</v>
+        <v>206.2215942352715</v>
       </c>
       <c r="V17" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>275.613740049974</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y17" t="n">
         <v>401.2838973446586</v>
@@ -2013,7 +2013,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>142.4770676871001</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>71.38780296833761</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2064,13 +2064,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W19" t="n">
-        <v>272.1038797892121</v>
+        <v>119.1138038808183</v>
       </c>
       <c r="X19" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="20">
@@ -2080,22 +2080,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>20.17406167291949</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>420.8729399924937</v>
+        <v>26.65534378869305</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>398.2657302332918</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>57.06632804309218</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>209.8302460968812</v>
@@ -2140,13 +2140,13 @@
         <v>255.6089649852995</v>
       </c>
       <c r="V20" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>401.2838973446586</v>
@@ -2250,16 +2250,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>163.6838381111991</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>134.26258275451</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>71.38780296833761</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>5.626053133425557</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>152.5650864830671</v>
@@ -2295,19 +2295,19 @@
         <v>237.0153716433569</v>
       </c>
       <c r="U22" t="n">
-        <v>277.3329370021073</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>278.8943527180514</v>
+        <v>48.33144559683425</v>
       </c>
       <c r="W22" t="n">
-        <v>250.0348236876368</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="23">
@@ -2323,7 +2323,7 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -2332,10 +2332,10 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G23" t="n">
-        <v>20.17406167291949</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>274.1005558094662</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,25 +2368,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>57.06632804309218</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>209.8302460968812</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>255.6089649852995</v>
+        <v>212.2903322488916</v>
       </c>
       <c r="V23" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X23" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y23" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2481,13 +2481,13 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>140.5865157270855</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>163.6838381111991</v>
@@ -2496,7 +2496,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>71.38780296833761</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>5.626053133425543</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>152.5650864830671</v>
@@ -2538,13 +2538,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W25" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>240.1382575886529</v>
+        <v>206.9009901928963</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="26">
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -2566,13 +2566,13 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G26" t="n">
-        <v>151.5906024076769</v>
+        <v>398.2657302332918</v>
       </c>
       <c r="H26" t="n">
-        <v>274.1005558094662</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2608,7 +2608,7 @@
         <v>57.06632804309218</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>209.8302460968812</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -2620,7 +2620,7 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>407.6027988439302</v>
+        <v>219.974921387021</v>
       </c>
       <c r="Y26" t="n">
         <v>401.2838973446586</v>
@@ -2715,7 +2715,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
         <v>161.683605144497</v>
@@ -2724,16 +2724,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>163.6838381111991</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>134.26258275451</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>71.38780296833761</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,13 +2763,13 @@
         <v>5.626053133425543</v>
       </c>
       <c r="S28" t="n">
-        <v>152.5650864830671</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>237.0153716433569</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>277.3329370021073</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>278.8943527180514</v>
@@ -2778,10 +2778,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X28" t="n">
-        <v>164.2426983497959</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y28" t="n">
-        <v>224.0793406271554</v>
+        <v>105.3669587097242</v>
       </c>
     </row>
     <row r="29">
@@ -2791,19 +2791,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>220.5273705013132</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>4.268355954478395</v>
       </c>
       <c r="G29" t="n">
         <v>398.2657302332918</v>
@@ -2842,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>57.06632804309218</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>209.8302460968812</v>
       </c>
       <c r="U29" t="n">
         <v>255.6089649852995</v>
@@ -2854,13 +2854,13 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X29" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="30">
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C31" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>164.546123788675</v>
+        <v>142.2065475715137</v>
       </c>
       <c r="F31" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>163.6838381111991</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>134.26258275451</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>71.38780296833761</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,16 +3000,16 @@
         <v>5.626053133425543</v>
       </c>
       <c r="S31" t="n">
-        <v>152.5650864830671</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>8.988127456386371</v>
+        <v>237.0153716433569</v>
       </c>
       <c r="U31" t="n">
         <v>277.3329370021073</v>
       </c>
       <c r="V31" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>272.1038797892121</v>
@@ -3031,19 +3031,19 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>362.6623203431377</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>398.2657302332918</v>
       </c>
       <c r="H32" t="n">
         <v>274.1005558094662</v>
@@ -3082,7 +3082,7 @@
         <v>57.06632804309218</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>209.8302460968812</v>
       </c>
       <c r="U32" t="n">
         <v>255.6089649852995</v>
@@ -3091,13 +3091,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>401.2838973446586</v>
+        <v>185.1399756085879</v>
       </c>
     </row>
     <row r="33">
@@ -3189,16 +3189,16 @@
         <v>188.264309024945</v>
       </c>
       <c r="C34" t="n">
-        <v>17.26276158148019</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3234,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>5.626053133425543</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>152.5650864830671</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>237.0153716433569</v>
+        <v>179.6310348688089</v>
       </c>
       <c r="U34" t="n">
         <v>277.3329370021073</v>
@@ -3249,7 +3249,7 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W34" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>240.1382575886529</v>
@@ -3265,16 +3265,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>17.80149250043802</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -3283,7 +3283,7 @@
         <v>398.2657302332918</v>
       </c>
       <c r="H35" t="n">
-        <v>274.1005558094662</v>
+        <v>269.9098815037746</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>57.06632804309218</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>209.8302460968812</v>
       </c>
       <c r="U35" t="n">
-        <v>255.6089649852995</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>353.914520725013</v>
@@ -3331,7 +3331,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3429,19 +3429,19 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>127.1063955829619</v>
+        <v>163.6838381111991</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>134.26258275451</v>
       </c>
       <c r="I37" t="n">
         <v>71.38780296833761</v>
@@ -3474,19 +3474,19 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>152.5650864830671</v>
+        <v>46.23073779177454</v>
       </c>
       <c r="T37" t="n">
-        <v>237.0153716433569</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>277.3329370021073</v>
       </c>
       <c r="V37" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W37" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>240.1382575886529</v>
@@ -3505,16 +3505,16 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -3553,16 +3553,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>57.06632804309218</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>209.8302460968812</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>255.6089649852995</v>
       </c>
       <c r="V38" t="n">
-        <v>353.914520725013</v>
+        <v>228.1244472262873</v>
       </c>
       <c r="W38" t="n">
         <v>392.4274362026566</v>
@@ -3571,7 +3571,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y38" t="n">
-        <v>27.27174012058276</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3669,16 +3669,16 @@
         <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
-        <v>170.1431564831852</v>
+        <v>69.5649811591401</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>163.6838381111991</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>134.26258275451</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3711,13 +3711,13 @@
         <v>5.626053133425543</v>
       </c>
       <c r="S40" t="n">
-        <v>152.5650864830671</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>237.0153716433569</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>25.58750757886686</v>
+        <v>277.3329370021073</v>
       </c>
       <c r="V40" t="n">
         <v>278.8943527180514</v>
@@ -3729,7 +3729,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y40" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3742,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -3754,7 +3754,7 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>398.2657302332918</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3790,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>57.06632804309218</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>209.8302460968812</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -3802,10 +3802,10 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>76.61122083629384</v>
       </c>
       <c r="X41" t="n">
-        <v>192.951453086709</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y41" t="n">
         <v>401.2838973446586</v>
@@ -3897,13 +3897,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C43" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>164.546123788675</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>5.626053133425543</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -3957,13 +3957,13 @@
         <v>277.3329370021073</v>
       </c>
       <c r="V43" t="n">
-        <v>79.86228190218004</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>272.1038797892121</v>
+        <v>79.62114708886611</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y43" t="n">
         <v>224.0793406271554</v>
@@ -3976,25 +3976,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C44" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E44" t="n">
-        <v>87.97726985693133</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F44" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
-        <v>398.2657302332918</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>274.1005558094662</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,13 +4027,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>57.06632804309217</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>209.8302460968812</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>255.6089649852995</v>
+        <v>26.42234931587711</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -4134,10 +4134,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4152,10 +4152,10 @@
         <v>163.6838381111991</v>
       </c>
       <c r="H46" t="n">
-        <v>134.26258275451</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>71.38780296833761</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,13 +4185,13 @@
         <v>5.626053133425543</v>
       </c>
       <c r="S46" t="n">
-        <v>152.5650864830671</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>237.0153716433569</v>
       </c>
       <c r="U46" t="n">
-        <v>252.0461692041135</v>
+        <v>235.6855779337128</v>
       </c>
       <c r="V46" t="n">
         <v>278.8943527180514</v>
@@ -4200,10 +4200,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y46" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>767.8737490852677</v>
+        <v>1332.294010869603</v>
       </c>
       <c r="C11" t="n">
-        <v>767.8737490852677</v>
+        <v>905.3932808829036</v>
       </c>
       <c r="D11" t="n">
-        <v>767.8737490852677</v>
+        <v>905.3932808829036</v>
       </c>
       <c r="E11" t="n">
-        <v>446.1219241215334</v>
+        <v>871.2461059321332</v>
       </c>
       <c r="F11" t="n">
         <v>446.1219241215334</v>
       </c>
       <c r="G11" t="n">
-        <v>43.83330772426898</v>
+        <v>43.83330772426899</v>
       </c>
       <c r="H11" t="n">
-        <v>43.83330772426898</v>
+        <v>43.83330772426899</v>
       </c>
       <c r="I11" t="n">
         <v>87.10761271643833</v>
       </c>
       <c r="J11" t="n">
-        <v>228.5477172037495</v>
+        <v>228.5477172037494</v>
       </c>
       <c r="K11" t="n">
-        <v>448.7747784804924</v>
+        <v>448.7747784804923</v>
       </c>
       <c r="L11" t="n">
-        <v>727.9824581050658</v>
+        <v>727.9824581050659</v>
       </c>
       <c r="M11" t="n">
-        <v>1043.801082832443</v>
+        <v>1043.801082832444</v>
       </c>
       <c r="N11" t="n">
-        <v>1365.479726947677</v>
+        <v>1365.479726947678</v>
       </c>
       <c r="O11" t="n">
         <v>1667.064768900565</v>
       </c>
       <c r="P11" t="n">
-        <v>1918.85421215123</v>
+        <v>1918.854212151231</v>
       </c>
       <c r="Q11" t="n">
-        <v>2100.109526681865</v>
+        <v>2100.109526681866</v>
       </c>
       <c r="R11" t="n">
         <v>2191.665386213449</v>
       </c>
       <c r="S11" t="n">
-        <v>2191.665386213449</v>
+        <v>2134.022630614366</v>
       </c>
       <c r="T11" t="n">
-        <v>2191.665386213449</v>
+        <v>2134.022630614366</v>
       </c>
       <c r="U11" t="n">
-        <v>1933.474512490924</v>
+        <v>2134.022630614366</v>
       </c>
       <c r="V11" t="n">
-        <v>1575.985097617174</v>
+        <v>2134.022630614366</v>
       </c>
       <c r="W11" t="n">
-        <v>1179.59374791752</v>
+        <v>1737.631280914713</v>
       </c>
       <c r="X11" t="n">
-        <v>767.8737490852677</v>
+        <v>1737.631280914713</v>
       </c>
       <c r="Y11" t="n">
-        <v>767.8737490852677</v>
+        <v>1332.294010869603</v>
       </c>
     </row>
     <row r="12">
@@ -5114,22 +5114,22 @@
         <v>86.6138662670264</v>
       </c>
       <c r="H12" t="n">
-        <v>43.83330772426898</v>
+        <v>43.83330772426899</v>
       </c>
       <c r="I12" t="n">
-        <v>64.84342863053152</v>
+        <v>64.84342863053153</v>
       </c>
       <c r="J12" t="n">
-        <v>146.0262857709435</v>
+        <v>370.497648442846</v>
       </c>
       <c r="K12" t="n">
-        <v>297.4808782569461</v>
+        <v>521.9522409288486</v>
       </c>
       <c r="L12" t="n">
-        <v>508.6576814496919</v>
+        <v>733.1290441215943</v>
       </c>
       <c r="M12" t="n">
-        <v>758.2365412873039</v>
+        <v>982.7079039592064</v>
       </c>
       <c r="N12" t="n">
         <v>1241.233778370454</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1090.257496350811</v>
+        <v>544.942883902444</v>
       </c>
       <c r="C13" t="n">
-        <v>918.2849332297275</v>
+        <v>544.942883902444</v>
       </c>
       <c r="D13" t="n">
-        <v>754.9681603564982</v>
+        <v>381.6261110292147</v>
       </c>
       <c r="E13" t="n">
-        <v>588.7599545093517</v>
+        <v>344.7892883967024</v>
       </c>
       <c r="F13" t="n">
-        <v>416.8981802839121</v>
+        <v>344.7892883967024</v>
       </c>
       <c r="G13" t="n">
-        <v>251.5609700705797</v>
+        <v>179.45207818337</v>
       </c>
       <c r="H13" t="n">
-        <v>115.9421996114787</v>
+        <v>43.83330772426899</v>
       </c>
       <c r="I13" t="n">
-        <v>43.83330772426898</v>
+        <v>43.83330772426899</v>
       </c>
       <c r="J13" t="n">
-        <v>87.13587819270245</v>
+        <v>165.0575948409233</v>
       </c>
       <c r="K13" t="n">
-        <v>171.1136997362474</v>
+        <v>496.3180254984903</v>
       </c>
       <c r="L13" t="n">
-        <v>456.8103098456199</v>
+        <v>608.6404166488189</v>
       </c>
       <c r="M13" t="n">
-        <v>989.30347400493</v>
+        <v>1141.133580808129</v>
       </c>
       <c r="N13" t="n">
-        <v>1106.709457826329</v>
+        <v>1258.539564629528</v>
       </c>
       <c r="O13" t="n">
         <v>1589.554333948619</v>
       </c>
       <c r="P13" t="n">
-        <v>1989.180585230912</v>
+        <v>1989.180585230913</v>
       </c>
       <c r="Q13" t="n">
         <v>2191.665386213449</v>
       </c>
       <c r="R13" t="n">
-        <v>2185.982504260494</v>
+        <v>2191.665386213449</v>
       </c>
       <c r="S13" t="n">
-        <v>2031.8763562978</v>
+        <v>2037.559238250755</v>
       </c>
       <c r="T13" t="n">
-        <v>1792.466889991379</v>
+        <v>1798.149771944334</v>
       </c>
       <c r="U13" t="n">
-        <v>1792.466889991379</v>
+        <v>1518.015492144226</v>
       </c>
       <c r="V13" t="n">
-        <v>1510.755422599407</v>
+        <v>1236.304024752255</v>
       </c>
       <c r="W13" t="n">
-        <v>1332.821392905006</v>
+        <v>961.4516209247677</v>
       </c>
       <c r="X13" t="n">
-        <v>1090.257496350811</v>
+        <v>961.4516209247677</v>
       </c>
       <c r="Y13" t="n">
-        <v>1090.257496350811</v>
+        <v>735.1088526145097</v>
       </c>
     </row>
     <row r="14">
@@ -5254,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>746.6794958688016</v>
+        <v>1374.608117336087</v>
       </c>
       <c r="C14" t="n">
-        <v>746.6794958688016</v>
+        <v>947.7073873493873</v>
       </c>
       <c r="D14" t="n">
-        <v>746.6794958688016</v>
+        <v>947.7073873493873</v>
       </c>
       <c r="E14" t="n">
-        <v>320.7025560166592</v>
+        <v>722.9911724139236</v>
       </c>
       <c r="F14" t="n">
-        <v>320.7025560166592</v>
+        <v>722.9911724139236</v>
       </c>
       <c r="G14" t="n">
         <v>320.7025560166592</v>
       </c>
       <c r="H14" t="n">
-        <v>43.83330772426898</v>
+        <v>43.83330772426899</v>
       </c>
       <c r="I14" t="n">
         <v>87.10761271643833</v>
@@ -5281,10 +5281,10 @@
         <v>228.5477172037492</v>
       </c>
       <c r="K14" t="n">
-        <v>448.7747784804923</v>
+        <v>448.7747784804921</v>
       </c>
       <c r="L14" t="n">
-        <v>727.9824581050659</v>
+        <v>727.9824581050657</v>
       </c>
       <c r="M14" t="n">
         <v>1043.801082832444</v>
@@ -5299,7 +5299,7 @@
         <v>1918.85421215123</v>
       </c>
       <c r="Q14" t="n">
-        <v>2100.109526681865</v>
+        <v>2100.109526681866</v>
       </c>
       <c r="R14" t="n">
         <v>2191.665386213449</v>
@@ -5308,22 +5308,22 @@
         <v>2191.665386213449</v>
       </c>
       <c r="T14" t="n">
-        <v>1979.715642681246</v>
+        <v>2191.665386213449</v>
       </c>
       <c r="U14" t="n">
-        <v>1921.226179619915</v>
+        <v>2191.665386213449</v>
       </c>
       <c r="V14" t="n">
-        <v>1563.736764746164</v>
+        <v>2191.665386213449</v>
       </c>
       <c r="W14" t="n">
-        <v>1563.736764746164</v>
+        <v>2191.665386213449</v>
       </c>
       <c r="X14" t="n">
-        <v>1152.016765913911</v>
+        <v>1779.945387381197</v>
       </c>
       <c r="Y14" t="n">
-        <v>746.6794958688016</v>
+        <v>1374.608117336087</v>
       </c>
     </row>
     <row r="15">
@@ -5351,31 +5351,31 @@
         <v>86.6138662670264</v>
       </c>
       <c r="H15" t="n">
-        <v>43.83330772426898</v>
+        <v>43.83330772426899</v>
       </c>
       <c r="I15" t="n">
-        <v>64.84342863053153</v>
+        <v>88.30073447494337</v>
       </c>
       <c r="J15" t="n">
-        <v>146.0262857709435</v>
+        <v>169.4835916153554</v>
       </c>
       <c r="K15" t="n">
-        <v>297.4808782569462</v>
+        <v>320.9381841013579</v>
       </c>
       <c r="L15" t="n">
-        <v>508.6576814496921</v>
+        <v>532.1149872941037</v>
       </c>
       <c r="M15" t="n">
-        <v>758.2365412873041</v>
+        <v>781.6938471317158</v>
       </c>
       <c r="N15" t="n">
-        <v>1016.762415698551</v>
+        <v>1040.219721542963</v>
       </c>
       <c r="O15" t="n">
-        <v>1249.652366935845</v>
+        <v>1273.109672780256</v>
       </c>
       <c r="P15" t="n">
-        <v>1433.425461480025</v>
+        <v>1456.882767324437</v>
       </c>
       <c r="Q15" t="n">
         <v>1667.176901360697</v>
@@ -5412,49 +5412,49 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>782.6661627706264</v>
+        <v>858.5418525873736</v>
       </c>
       <c r="C16" t="n">
-        <v>782.6661627706264</v>
+        <v>858.5418525873736</v>
       </c>
       <c r="D16" t="n">
-        <v>619.3493898973971</v>
+        <v>695.2250797141443</v>
       </c>
       <c r="E16" t="n">
-        <v>453.1411840502507</v>
+        <v>529.0168738669978</v>
       </c>
       <c r="F16" t="n">
-        <v>281.2794098248111</v>
+        <v>357.1550996415582</v>
       </c>
       <c r="G16" t="n">
-        <v>115.9421996114787</v>
+        <v>251.5609700705797</v>
       </c>
       <c r="H16" t="n">
         <v>115.9421996114787</v>
       </c>
       <c r="I16" t="n">
-        <v>43.83330772426898</v>
+        <v>43.83330772426899</v>
       </c>
       <c r="J16" t="n">
-        <v>165.0575948409233</v>
+        <v>87.13587819270245</v>
       </c>
       <c r="K16" t="n">
-        <v>249.0354163844682</v>
+        <v>418.3963088502694</v>
       </c>
       <c r="L16" t="n">
-        <v>456.8103098456198</v>
+        <v>907.1075935917629</v>
       </c>
       <c r="M16" t="n">
-        <v>989.30347400493</v>
+        <v>1439.600757751073</v>
       </c>
       <c r="N16" t="n">
-        <v>1106.709457826329</v>
+        <v>1557.006741572472</v>
       </c>
       <c r="O16" t="n">
-        <v>1589.554333948619</v>
+        <v>1662.149293391559</v>
       </c>
       <c r="P16" t="n">
-        <v>1989.180585230912</v>
+        <v>1989.180585230913</v>
       </c>
       <c r="Q16" t="n">
         <v>2191.665386213449</v>
@@ -5463,25 +5463,25 @@
         <v>2185.982504260494</v>
       </c>
       <c r="S16" t="n">
-        <v>2185.982504260494</v>
+        <v>2031.8763562978</v>
       </c>
       <c r="T16" t="n">
-        <v>2185.982504260494</v>
+        <v>1792.466889991379</v>
       </c>
       <c r="U16" t="n">
-        <v>1905.848224460386</v>
+        <v>1792.466889991379</v>
       </c>
       <c r="V16" t="n">
-        <v>1624.136757068414</v>
+        <v>1792.466889991379</v>
       </c>
       <c r="W16" t="n">
-        <v>1349.284353240927</v>
+        <v>1517.614486163892</v>
       </c>
       <c r="X16" t="n">
-        <v>1106.720456686733</v>
+        <v>1275.050589609697</v>
       </c>
       <c r="Y16" t="n">
-        <v>880.3776883764747</v>
+        <v>1048.707821299439</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>892.2501103498685</v>
+        <v>896.7109775631113</v>
       </c>
       <c r="C17" t="n">
-        <v>892.2501103498685</v>
+        <v>469.8102475764114</v>
       </c>
       <c r="D17" t="n">
-        <v>468.9574895348688</v>
+        <v>469.8102475764114</v>
       </c>
       <c r="E17" t="n">
-        <v>468.9574895348688</v>
+        <v>43.83330772426897</v>
       </c>
       <c r="F17" t="n">
-        <v>43.83330772426899</v>
+        <v>43.83330772426897</v>
       </c>
       <c r="G17" t="n">
-        <v>43.83330772426899</v>
+        <v>43.83330772426897</v>
       </c>
       <c r="H17" t="n">
-        <v>43.83330772426899</v>
+        <v>43.83330772426897</v>
       </c>
       <c r="I17" t="n">
-        <v>87.10761271643833</v>
+        <v>87.10761271643844</v>
       </c>
       <c r="J17" t="n">
-        <v>228.5477172037492</v>
+        <v>228.5477172037495</v>
       </c>
       <c r="K17" t="n">
-        <v>448.7747784804921</v>
+        <v>448.7747784804924</v>
       </c>
       <c r="L17" t="n">
-        <v>727.9824581050657</v>
+        <v>727.982458105066</v>
       </c>
       <c r="M17" t="n">
-        <v>1043.801082832444</v>
+        <v>1043.801082832443</v>
       </c>
       <c r="N17" t="n">
         <v>1365.479726947677</v>
       </c>
       <c r="O17" t="n">
-        <v>1667.064768900565</v>
+        <v>1667.064768900564</v>
       </c>
       <c r="P17" t="n">
-        <v>1918.854212151231</v>
+        <v>1918.85421215123</v>
       </c>
       <c r="Q17" t="n">
-        <v>2100.109526681866</v>
+        <v>2100.109526681865</v>
       </c>
       <c r="R17" t="n">
         <v>2191.665386213449</v>
       </c>
       <c r="S17" t="n">
-        <v>2191.665386213449</v>
+        <v>2134.022630614365</v>
       </c>
       <c r="T17" t="n">
-        <v>2191.665386213449</v>
+        <v>1922.072887082162</v>
       </c>
       <c r="U17" t="n">
-        <v>1933.474512490925</v>
+        <v>1713.768246440474</v>
       </c>
       <c r="V17" t="n">
-        <v>1575.985097617174</v>
+        <v>1713.768246440474</v>
       </c>
       <c r="W17" t="n">
-        <v>1297.587380394978</v>
+        <v>1713.768246440474</v>
       </c>
       <c r="X17" t="n">
-        <v>1297.587380394978</v>
+        <v>1302.048247608221</v>
       </c>
       <c r="Y17" t="n">
-        <v>892.2501103498685</v>
+        <v>896.7109775631113</v>
       </c>
     </row>
     <row r="18">
@@ -5576,46 +5576,46 @@
         <v>481.7582752420359</v>
       </c>
       <c r="D18" t="n">
-        <v>377.918316757321</v>
+        <v>377.9183167573209</v>
       </c>
       <c r="E18" t="n">
-        <v>273.2163830302582</v>
+        <v>273.2163830302581</v>
       </c>
       <c r="F18" t="n">
         <v>179.5705527131623</v>
       </c>
       <c r="G18" t="n">
-        <v>86.6138662670264</v>
+        <v>86.61386626702638</v>
       </c>
       <c r="H18" t="n">
-        <v>43.83330772426899</v>
+        <v>43.83330772426897</v>
       </c>
       <c r="I18" t="n">
-        <v>88.30073447494337</v>
+        <v>88.30073447494335</v>
       </c>
       <c r="J18" t="n">
-        <v>370.497648442846</v>
+        <v>265.0421481579401</v>
       </c>
       <c r="K18" t="n">
-        <v>521.9522409288486</v>
+        <v>416.4967406439427</v>
       </c>
       <c r="L18" t="n">
-        <v>733.1290441215943</v>
+        <v>627.6735438366885</v>
       </c>
       <c r="M18" t="n">
-        <v>982.7079039592064</v>
+        <v>877.2524036743006</v>
       </c>
       <c r="N18" t="n">
-        <v>1241.233778370454</v>
+        <v>1135.778278085548</v>
       </c>
       <c r="O18" t="n">
-        <v>1474.123729607747</v>
+        <v>1368.668229322841</v>
       </c>
       <c r="P18" t="n">
-        <v>1657.896824151927</v>
+        <v>1552.441323867022</v>
       </c>
       <c r="Q18" t="n">
-        <v>1772.632401645602</v>
+        <v>1667.176901360697</v>
       </c>
       <c r="R18" t="n">
         <v>1815.956238873899</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>523.0388737055521</v>
+        <v>451.231535605792</v>
       </c>
       <c r="C19" t="n">
-        <v>351.0663105844681</v>
+        <v>279.258972484708</v>
       </c>
       <c r="D19" t="n">
-        <v>187.7495377112388</v>
+        <v>115.9421996114787</v>
       </c>
       <c r="E19" t="n">
-        <v>187.7495377112388</v>
+        <v>115.9421996114787</v>
       </c>
       <c r="F19" t="n">
-        <v>43.83330772426899</v>
+        <v>115.9421996114787</v>
       </c>
       <c r="G19" t="n">
-        <v>43.83330772426899</v>
+        <v>115.9421996114787</v>
       </c>
       <c r="H19" t="n">
-        <v>43.83330772426899</v>
+        <v>115.9421996114787</v>
       </c>
       <c r="I19" t="n">
-        <v>43.83330772426899</v>
+        <v>43.83330772426897</v>
       </c>
       <c r="J19" t="n">
-        <v>87.13587819270245</v>
+        <v>87.13587819270244</v>
       </c>
       <c r="K19" t="n">
-        <v>418.3963088502694</v>
+        <v>171.1136997362474</v>
       </c>
       <c r="L19" t="n">
-        <v>907.1075935917629</v>
+        <v>659.8249844777409</v>
       </c>
       <c r="M19" t="n">
-        <v>1439.600757751073</v>
+        <v>1192.318148637051</v>
       </c>
       <c r="N19" t="n">
-        <v>1557.006741572472</v>
+        <v>1570.839159777535</v>
       </c>
       <c r="O19" t="n">
-        <v>1740.927831326519</v>
+        <v>2053.684035899825</v>
       </c>
       <c r="P19" t="n">
-        <v>2140.554082608812</v>
+        <v>2140.554082608811</v>
       </c>
       <c r="Q19" t="n">
         <v>2191.665386213449</v>
       </c>
       <c r="R19" t="n">
-        <v>2185.982504260494</v>
+        <v>2185.982504260493</v>
       </c>
       <c r="S19" t="n">
-        <v>2031.8763562978</v>
+        <v>2031.876356297799</v>
       </c>
       <c r="T19" t="n">
-        <v>1792.466889991379</v>
+        <v>1792.466889991378</v>
       </c>
       <c r="U19" t="n">
-        <v>1512.332610191271</v>
+        <v>1512.33261019127</v>
       </c>
       <c r="V19" t="n">
-        <v>1230.6211427993</v>
+        <v>1230.621142799299</v>
       </c>
       <c r="W19" t="n">
-        <v>955.7687389718126</v>
+        <v>1110.30416918231</v>
       </c>
       <c r="X19" t="n">
-        <v>713.2048424176177</v>
+        <v>867.7402726281157</v>
       </c>
       <c r="Y19" t="n">
-        <v>713.2048424176177</v>
+        <v>641.3975043178577</v>
       </c>
     </row>
     <row r="20">
@@ -5728,37 +5728,37 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>468.9574895348688</v>
+        <v>896.3391346220817</v>
       </c>
       <c r="C20" t="n">
-        <v>468.9574895348688</v>
+        <v>896.3391346220817</v>
       </c>
       <c r="D20" t="n">
-        <v>468.9574895348688</v>
+        <v>473.046513807082</v>
       </c>
       <c r="E20" t="n">
-        <v>468.9574895348688</v>
+        <v>473.046513807082</v>
       </c>
       <c r="F20" t="n">
-        <v>43.83330772426898</v>
+        <v>446.1219241215334</v>
       </c>
       <c r="G20" t="n">
-        <v>43.83330772426898</v>
+        <v>43.83330772426899</v>
       </c>
       <c r="H20" t="n">
-        <v>43.83330772426898</v>
+        <v>43.83330772426899</v>
       </c>
       <c r="I20" t="n">
-        <v>87.10761271643844</v>
+        <v>87.10761271643833</v>
       </c>
       <c r="J20" t="n">
-        <v>228.5477172037495</v>
+        <v>228.5477172037494</v>
       </c>
       <c r="K20" t="n">
-        <v>448.7747784804924</v>
+        <v>448.7747784804923</v>
       </c>
       <c r="L20" t="n">
-        <v>727.982458105066</v>
+        <v>727.9824581050659</v>
       </c>
       <c r="M20" t="n">
         <v>1043.801082832444</v>
@@ -5770,34 +5770,34 @@
         <v>1667.064768900565</v>
       </c>
       <c r="P20" t="n">
-        <v>1918.85421215123</v>
+        <v>1918.854212151231</v>
       </c>
       <c r="Q20" t="n">
-        <v>2100.109526681865</v>
+        <v>2100.109526681866</v>
       </c>
       <c r="R20" t="n">
         <v>2191.665386213449</v>
       </c>
       <c r="S20" t="n">
-        <v>2134.022630614366</v>
+        <v>2191.665386213449</v>
       </c>
       <c r="T20" t="n">
-        <v>1922.072887082163</v>
+        <v>1979.715642681246</v>
       </c>
       <c r="U20" t="n">
-        <v>1663.882013359638</v>
+        <v>1721.524768958721</v>
       </c>
       <c r="V20" t="n">
-        <v>1306.392598485887</v>
+        <v>1721.524768958721</v>
       </c>
       <c r="W20" t="n">
-        <v>1306.392598485887</v>
+        <v>1721.524768958721</v>
       </c>
       <c r="X20" t="n">
-        <v>894.6725996536345</v>
+        <v>1721.524768958721</v>
       </c>
       <c r="Y20" t="n">
-        <v>489.3353296085248</v>
+        <v>1316.187498913612</v>
       </c>
     </row>
     <row r="21">
@@ -5825,34 +5825,34 @@
         <v>86.6138662670264</v>
       </c>
       <c r="H21" t="n">
-        <v>43.83330772426898</v>
+        <v>43.83330772426899</v>
       </c>
       <c r="I21" t="n">
-        <v>64.84342863053152</v>
+        <v>88.30073447494337</v>
       </c>
       <c r="J21" t="n">
-        <v>146.0262857709435</v>
+        <v>169.4835916153554</v>
       </c>
       <c r="K21" t="n">
-        <v>297.4808782569461</v>
+        <v>320.9381841013579</v>
       </c>
       <c r="L21" t="n">
-        <v>508.6576814496919</v>
+        <v>532.1149872941037</v>
       </c>
       <c r="M21" t="n">
-        <v>758.2365412873039</v>
+        <v>781.6938471317158</v>
       </c>
       <c r="N21" t="n">
-        <v>1241.233778370454</v>
+        <v>1040.219721542963</v>
       </c>
       <c r="O21" t="n">
-        <v>1474.123729607747</v>
+        <v>1273.109672780256</v>
       </c>
       <c r="P21" t="n">
-        <v>1657.896824151927</v>
+        <v>1552.441323867022</v>
       </c>
       <c r="Q21" t="n">
-        <v>1772.632401645602</v>
+        <v>1667.176901360697</v>
       </c>
       <c r="R21" t="n">
         <v>1815.956238873899</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>545.3308495657287</v>
+        <v>1090.257496350811</v>
       </c>
       <c r="C22" t="n">
-        <v>373.3582864446447</v>
+        <v>918.2849332297275</v>
       </c>
       <c r="D22" t="n">
-        <v>210.0415135714154</v>
+        <v>754.9681603564982</v>
       </c>
       <c r="E22" t="n">
-        <v>43.83330772426898</v>
+        <v>588.7599545093517</v>
       </c>
       <c r="F22" t="n">
-        <v>43.83330772426898</v>
+        <v>416.8981802839122</v>
       </c>
       <c r="G22" t="n">
-        <v>43.83330772426898</v>
+        <v>251.5609700705797</v>
       </c>
       <c r="H22" t="n">
-        <v>43.83330772426898</v>
+        <v>115.9421996114787</v>
       </c>
       <c r="I22" t="n">
-        <v>43.83330772426898</v>
+        <v>43.83330772426899</v>
       </c>
       <c r="J22" t="n">
         <v>165.0575948409233</v>
@@ -5916,46 +5916,46 @@
         <v>249.0354163844682</v>
       </c>
       <c r="L22" t="n">
-        <v>737.7467011259619</v>
+        <v>361.3578075347968</v>
       </c>
       <c r="M22" t="n">
-        <v>856.7043848224502</v>
+        <v>893.8509716941069</v>
       </c>
       <c r="N22" t="n">
-        <v>1372.143291485729</v>
+        <v>1409.289878357386</v>
       </c>
       <c r="O22" t="n">
-        <v>1589.554333948619</v>
+        <v>1892.134754479676</v>
       </c>
       <c r="P22" t="n">
-        <v>1989.180585230912</v>
+        <v>1989.180585230913</v>
       </c>
       <c r="Q22" t="n">
         <v>2191.665386213449</v>
       </c>
       <c r="R22" t="n">
-        <v>2185.982504260494</v>
+        <v>2191.665386213449</v>
       </c>
       <c r="S22" t="n">
-        <v>2031.8763562978</v>
+        <v>2037.559238250755</v>
       </c>
       <c r="T22" t="n">
-        <v>1792.466889991379</v>
+        <v>1798.149771944334</v>
       </c>
       <c r="U22" t="n">
-        <v>1512.33261019127</v>
+        <v>1798.149771944334</v>
       </c>
       <c r="V22" t="n">
-        <v>1230.621142799299</v>
+        <v>1749.33012992733</v>
       </c>
       <c r="W22" t="n">
-        <v>978.0607148319892</v>
+        <v>1749.33012992733</v>
       </c>
       <c r="X22" t="n">
-        <v>735.4968182777943</v>
+        <v>1506.766233373135</v>
       </c>
       <c r="Y22" t="n">
-        <v>735.4968182777943</v>
+        <v>1280.423465062877</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>489.3353296085248</v>
+        <v>1169.119358642259</v>
       </c>
       <c r="C23" t="n">
-        <v>489.3353296085248</v>
+        <v>1169.119358642259</v>
       </c>
       <c r="D23" t="n">
-        <v>489.3353296085248</v>
+        <v>745.826737827259</v>
       </c>
       <c r="E23" t="n">
-        <v>489.3353296085248</v>
+        <v>745.826737827259</v>
       </c>
       <c r="F23" t="n">
-        <v>64.21114779792504</v>
+        <v>320.7025560166592</v>
       </c>
       <c r="G23" t="n">
-        <v>43.83330772426898</v>
+        <v>320.7025560166592</v>
       </c>
       <c r="H23" t="n">
         <v>43.83330772426898</v>
@@ -6016,25 +6016,25 @@
         <v>2191.665386213449</v>
       </c>
       <c r="S23" t="n">
-        <v>2134.022630614366</v>
+        <v>2191.665386213449</v>
       </c>
       <c r="T23" t="n">
-        <v>1922.072887082163</v>
+        <v>2191.665386213449</v>
       </c>
       <c r="U23" t="n">
-        <v>1663.882013359638</v>
+        <v>1977.230707174165</v>
       </c>
       <c r="V23" t="n">
-        <v>1306.392598485887</v>
+        <v>1977.230707174165</v>
       </c>
       <c r="W23" t="n">
-        <v>1306.392598485887</v>
+        <v>1580.839357474511</v>
       </c>
       <c r="X23" t="n">
-        <v>894.6725996536345</v>
+        <v>1169.119358642259</v>
       </c>
       <c r="Y23" t="n">
-        <v>489.3353296085248</v>
+        <v>1169.119358642259</v>
       </c>
     </row>
     <row r="24">
@@ -6065,10 +6065,10 @@
         <v>43.83330772426898</v>
       </c>
       <c r="I24" t="n">
-        <v>64.84342863053153</v>
+        <v>88.30073447494337</v>
       </c>
       <c r="J24" t="n">
-        <v>370.4976484428457</v>
+        <v>169.4835916153554</v>
       </c>
       <c r="K24" t="n">
         <v>521.9522409288484</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>523.0388737055516</v>
+        <v>610.8043885451868</v>
       </c>
       <c r="C25" t="n">
-        <v>523.0388737055516</v>
+        <v>610.8043885451868</v>
       </c>
       <c r="D25" t="n">
-        <v>381.032292163041</v>
+        <v>447.4876156719575</v>
       </c>
       <c r="E25" t="n">
-        <v>381.032292163041</v>
+        <v>281.2794098248111</v>
       </c>
       <c r="F25" t="n">
-        <v>209.1705179376014</v>
+        <v>281.2794098248111</v>
       </c>
       <c r="G25" t="n">
-        <v>43.83330772426898</v>
+        <v>115.9421996114787</v>
       </c>
       <c r="H25" t="n">
-        <v>43.83330772426898</v>
+        <v>115.9421996114787</v>
       </c>
       <c r="I25" t="n">
         <v>43.83330772426898</v>
       </c>
       <c r="J25" t="n">
-        <v>165.0575948409233</v>
+        <v>87.13587819270246</v>
       </c>
       <c r="K25" t="n">
-        <v>249.0354163844682</v>
+        <v>171.1136997362474</v>
       </c>
       <c r="L25" t="n">
-        <v>472.3128674665614</v>
+        <v>522.9070889549463</v>
       </c>
       <c r="M25" t="n">
-        <v>591.2705511630497</v>
+        <v>1055.400253114256</v>
       </c>
       <c r="N25" t="n">
-        <v>1106.709457826329</v>
+        <v>1570.839159777536</v>
       </c>
       <c r="O25" t="n">
-        <v>1589.554333948619</v>
+        <v>2053.684035899826</v>
       </c>
       <c r="P25" t="n">
-        <v>1989.180585230912</v>
+        <v>2140.554082608811</v>
       </c>
       <c r="Q25" t="n">
         <v>2191.665386213449</v>
       </c>
       <c r="R25" t="n">
-        <v>2185.982504260494</v>
+        <v>2191.665386213449</v>
       </c>
       <c r="S25" t="n">
-        <v>2031.8763562978</v>
+        <v>2037.559238250755</v>
       </c>
       <c r="T25" t="n">
-        <v>1792.466889991379</v>
+        <v>1798.149771944334</v>
       </c>
       <c r="U25" t="n">
-        <v>1512.33261019127</v>
+        <v>1518.015492144225</v>
       </c>
       <c r="V25" t="n">
-        <v>1230.621142799299</v>
+        <v>1236.304024752254</v>
       </c>
       <c r="W25" t="n">
-        <v>955.7687389718121</v>
+        <v>1236.304024752254</v>
       </c>
       <c r="X25" t="n">
-        <v>713.2048424176172</v>
+        <v>1027.31312556751</v>
       </c>
       <c r="Y25" t="n">
-        <v>713.2048424176172</v>
+        <v>800.9703572572525</v>
       </c>
     </row>
     <row r="26">
@@ -6202,37 +6202,37 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>897.116997445474</v>
+        <v>1294.538726747133</v>
       </c>
       <c r="C26" t="n">
-        <v>897.116997445474</v>
+        <v>1294.538726747133</v>
       </c>
       <c r="D26" t="n">
-        <v>473.8243766304743</v>
+        <v>871.2461059321332</v>
       </c>
       <c r="E26" t="n">
-        <v>473.8243766304743</v>
+        <v>871.2461059321332</v>
       </c>
       <c r="F26" t="n">
-        <v>473.8243766304743</v>
+        <v>446.1219241215334</v>
       </c>
       <c r="G26" t="n">
-        <v>320.7025560166592</v>
+        <v>43.83330772426898</v>
       </c>
       <c r="H26" t="n">
-        <v>43.83330772426899</v>
+        <v>43.83330772426898</v>
       </c>
       <c r="I26" t="n">
-        <v>87.10761271643833</v>
+        <v>87.10761271643844</v>
       </c>
       <c r="J26" t="n">
-        <v>228.5477172037497</v>
+        <v>228.5477172037496</v>
       </c>
       <c r="K26" t="n">
         <v>448.7747784804926</v>
       </c>
       <c r="L26" t="n">
-        <v>727.982458105066</v>
+        <v>727.9824581050661</v>
       </c>
       <c r="M26" t="n">
         <v>1043.801082832444</v>
@@ -6244,10 +6244,10 @@
         <v>1667.064768900565</v>
       </c>
       <c r="P26" t="n">
-        <v>1918.854212151231</v>
+        <v>1918.85421215123</v>
       </c>
       <c r="Q26" t="n">
-        <v>2100.109526681866</v>
+        <v>2100.109526681865</v>
       </c>
       <c r="R26" t="n">
         <v>2191.665386213449</v>
@@ -6256,22 +6256,22 @@
         <v>2134.022630614366</v>
       </c>
       <c r="T26" t="n">
-        <v>2134.022630614366</v>
+        <v>1922.072887082163</v>
       </c>
       <c r="U26" t="n">
-        <v>2134.022630614366</v>
+        <v>1922.072887082163</v>
       </c>
       <c r="V26" t="n">
-        <v>2134.022630614366</v>
+        <v>1922.072887082163</v>
       </c>
       <c r="W26" t="n">
-        <v>2134.022630614366</v>
+        <v>1922.072887082163</v>
       </c>
       <c r="X26" t="n">
-        <v>1722.302631782114</v>
+        <v>1699.875996792242</v>
       </c>
       <c r="Y26" t="n">
-        <v>1316.965361737004</v>
+        <v>1294.538726747133</v>
       </c>
     </row>
     <row r="27">
@@ -6299,34 +6299,34 @@
         <v>86.6138662670264</v>
       </c>
       <c r="H27" t="n">
-        <v>43.83330772426899</v>
+        <v>43.83330772426898</v>
       </c>
       <c r="I27" t="n">
         <v>64.84342863053153</v>
       </c>
       <c r="J27" t="n">
-        <v>146.0262857709435</v>
+        <v>370.4976484428457</v>
       </c>
       <c r="K27" t="n">
-        <v>297.4808782569462</v>
+        <v>521.9522409288484</v>
       </c>
       <c r="L27" t="n">
-        <v>508.6576814496921</v>
+        <v>733.1290441215942</v>
       </c>
       <c r="M27" t="n">
-        <v>758.2365412873041</v>
+        <v>982.7079039592063</v>
       </c>
       <c r="N27" t="n">
-        <v>1016.762415698551</v>
+        <v>1241.233778370454</v>
       </c>
       <c r="O27" t="n">
-        <v>1249.652366935845</v>
+        <v>1474.123729607747</v>
       </c>
       <c r="P27" t="n">
-        <v>1552.441323867022</v>
+        <v>1657.896824151927</v>
       </c>
       <c r="Q27" t="n">
-        <v>1667.176901360697</v>
+        <v>1772.632401645602</v>
       </c>
       <c r="R27" t="n">
         <v>1815.956238873899</v>
@@ -6360,49 +6360,49 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>373.3582864446447</v>
+        <v>1090.257496350811</v>
       </c>
       <c r="C28" t="n">
-        <v>373.3582864446447</v>
+        <v>918.2849332297275</v>
       </c>
       <c r="D28" t="n">
-        <v>210.0415135714154</v>
+        <v>754.9681603564982</v>
       </c>
       <c r="E28" t="n">
-        <v>43.83330772426899</v>
+        <v>588.7599545093517</v>
       </c>
       <c r="F28" t="n">
-        <v>43.83330772426899</v>
+        <v>416.8981802839121</v>
       </c>
       <c r="G28" t="n">
-        <v>43.83330772426899</v>
+        <v>251.5609700705797</v>
       </c>
       <c r="H28" t="n">
-        <v>43.83330772426899</v>
+        <v>115.9421996114787</v>
       </c>
       <c r="I28" t="n">
-        <v>43.83330772426899</v>
+        <v>43.83330772426898</v>
       </c>
       <c r="J28" t="n">
-        <v>165.0575948409233</v>
+        <v>87.13587819270246</v>
       </c>
       <c r="K28" t="n">
-        <v>249.0354163844683</v>
+        <v>171.1136997362474</v>
       </c>
       <c r="L28" t="n">
-        <v>361.3578075347969</v>
+        <v>522.9070889549463</v>
       </c>
       <c r="M28" t="n">
-        <v>893.8509716941071</v>
+        <v>1055.400253114256</v>
       </c>
       <c r="N28" t="n">
-        <v>1409.289878357386</v>
+        <v>1570.839159777536</v>
       </c>
       <c r="O28" t="n">
-        <v>1589.554333948619</v>
+        <v>2053.684035899826</v>
       </c>
       <c r="P28" t="n">
-        <v>1989.180585230913</v>
+        <v>2140.554082608811</v>
       </c>
       <c r="Q28" t="n">
         <v>2191.665386213449</v>
@@ -6411,25 +6411,25 @@
         <v>2185.982504260494</v>
       </c>
       <c r="S28" t="n">
-        <v>2031.8763562978</v>
+        <v>2185.982504260494</v>
       </c>
       <c r="T28" t="n">
-        <v>1792.466889991379</v>
+        <v>2185.982504260494</v>
       </c>
       <c r="U28" t="n">
-        <v>1512.332610191271</v>
+        <v>2185.982504260494</v>
       </c>
       <c r="V28" t="n">
-        <v>1230.6211427993</v>
+        <v>1904.271036868523</v>
       </c>
       <c r="W28" t="n">
-        <v>955.7687389718126</v>
+        <v>1629.418633041036</v>
       </c>
       <c r="X28" t="n">
-        <v>789.8670234669682</v>
+        <v>1386.854736486841</v>
       </c>
       <c r="Y28" t="n">
-        <v>563.5242551567103</v>
+        <v>1280.423465062877</v>
       </c>
     </row>
     <row r="29">
@@ -6439,16 +6439,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1298.999593960376</v>
+        <v>450.4333947826227</v>
       </c>
       <c r="C29" t="n">
-        <v>872.0988639736759</v>
+        <v>450.4333947826227</v>
       </c>
       <c r="D29" t="n">
-        <v>872.0988639736759</v>
+        <v>450.4333947826227</v>
       </c>
       <c r="E29" t="n">
-        <v>446.1219241215334</v>
+        <v>450.4333947826227</v>
       </c>
       <c r="F29" t="n">
         <v>446.1219241215334</v>
@@ -6460,16 +6460,16 @@
         <v>43.83330772426899</v>
       </c>
       <c r="I29" t="n">
-        <v>87.10761271643844</v>
+        <v>87.10761271643833</v>
       </c>
       <c r="J29" t="n">
-        <v>228.5477172037496</v>
+        <v>228.5477172037497</v>
       </c>
       <c r="K29" t="n">
-        <v>448.7747784804928</v>
+        <v>448.7747784804926</v>
       </c>
       <c r="L29" t="n">
-        <v>727.9824581050664</v>
+        <v>727.982458105066</v>
       </c>
       <c r="M29" t="n">
         <v>1043.801082832444</v>
@@ -6490,25 +6490,25 @@
         <v>2191.665386213449</v>
       </c>
       <c r="S29" t="n">
-        <v>2191.665386213449</v>
+        <v>2134.022630614366</v>
       </c>
       <c r="T29" t="n">
-        <v>2191.665386213449</v>
+        <v>1922.072887082163</v>
       </c>
       <c r="U29" t="n">
-        <v>1933.474512490925</v>
+        <v>1663.882013359638</v>
       </c>
       <c r="V29" t="n">
-        <v>1933.474512490925</v>
+        <v>1663.882013359638</v>
       </c>
       <c r="W29" t="n">
-        <v>1933.474512490925</v>
+        <v>1267.490663659985</v>
       </c>
       <c r="X29" t="n">
-        <v>1521.754513658672</v>
+        <v>855.7706648277324</v>
       </c>
       <c r="Y29" t="n">
-        <v>1521.754513658672</v>
+        <v>450.4333947826227</v>
       </c>
     </row>
     <row r="30">
@@ -6539,31 +6539,31 @@
         <v>43.83330772426899</v>
       </c>
       <c r="I30" t="n">
-        <v>64.84342863053153</v>
+        <v>88.30073447494337</v>
       </c>
       <c r="J30" t="n">
-        <v>146.0262857709435</v>
+        <v>370.4976484428457</v>
       </c>
       <c r="K30" t="n">
-        <v>297.4808782569462</v>
+        <v>521.9522409288484</v>
       </c>
       <c r="L30" t="n">
-        <v>508.6576814496921</v>
+        <v>733.1290441215942</v>
       </c>
       <c r="M30" t="n">
-        <v>758.2365412873041</v>
+        <v>982.7079039592063</v>
       </c>
       <c r="N30" t="n">
-        <v>1016.762415698551</v>
+        <v>1241.233778370454</v>
       </c>
       <c r="O30" t="n">
-        <v>1249.652366935845</v>
+        <v>1474.123729607747</v>
       </c>
       <c r="P30" t="n">
-        <v>1552.441323867022</v>
+        <v>1657.896824151927</v>
       </c>
       <c r="Q30" t="n">
-        <v>1667.176901360697</v>
+        <v>1772.632401645602</v>
       </c>
       <c r="R30" t="n">
         <v>1815.956238873899</v>
@@ -6597,49 +6597,49 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>717.1926237911683</v>
+        <v>732.5137207499595</v>
       </c>
       <c r="C31" t="n">
-        <v>545.2200606700843</v>
+        <v>560.5411576288755</v>
       </c>
       <c r="D31" t="n">
-        <v>381.903287796855</v>
+        <v>560.5411576288755</v>
       </c>
       <c r="E31" t="n">
-        <v>215.6950819497086</v>
+        <v>416.8981802839122</v>
       </c>
       <c r="F31" t="n">
-        <v>43.83330772426899</v>
+        <v>416.8981802839122</v>
       </c>
       <c r="G31" t="n">
-        <v>43.83330772426899</v>
+        <v>251.5609700705797</v>
       </c>
       <c r="H31" t="n">
-        <v>43.83330772426899</v>
+        <v>115.9421996114787</v>
       </c>
       <c r="I31" t="n">
         <v>43.83330772426899</v>
       </c>
       <c r="J31" t="n">
-        <v>165.0575948409233</v>
+        <v>87.13587819270248</v>
       </c>
       <c r="K31" t="n">
-        <v>496.3180254984903</v>
+        <v>171.1136997362474</v>
       </c>
       <c r="L31" t="n">
-        <v>834.5126341488234</v>
+        <v>522.9070889549467</v>
       </c>
       <c r="M31" t="n">
-        <v>1367.005798308134</v>
+        <v>1055.400253114257</v>
       </c>
       <c r="N31" t="n">
-        <v>1484.411782129532</v>
+        <v>1570.839159777536</v>
       </c>
       <c r="O31" t="n">
-        <v>1589.554333948619</v>
+        <v>2053.684035899826</v>
       </c>
       <c r="P31" t="n">
-        <v>1989.180585230913</v>
+        <v>2140.554082608812</v>
       </c>
       <c r="Q31" t="n">
         <v>2191.665386213449</v>
@@ -6648,25 +6648,25 @@
         <v>2185.982504260494</v>
       </c>
       <c r="S31" t="n">
-        <v>2031.8763562978</v>
+        <v>2185.982504260494</v>
       </c>
       <c r="T31" t="n">
-        <v>2022.797439675188</v>
+        <v>1946.573037954073</v>
       </c>
       <c r="U31" t="n">
-        <v>1742.663159875079</v>
+        <v>1666.438758153965</v>
       </c>
       <c r="V31" t="n">
-        <v>1460.951692483108</v>
+        <v>1666.438758153965</v>
       </c>
       <c r="W31" t="n">
-        <v>1186.099288655621</v>
+        <v>1391.586354326478</v>
       </c>
       <c r="X31" t="n">
-        <v>943.5353921014263</v>
+        <v>1149.022457772283</v>
       </c>
       <c r="Y31" t="n">
-        <v>717.1926237911683</v>
+        <v>922.6796894620252</v>
       </c>
     </row>
     <row r="32">
@@ -6676,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1113.005071972981</v>
+        <v>722.9911724139236</v>
       </c>
       <c r="C32" t="n">
-        <v>746.6794958688016</v>
+        <v>722.9911724139236</v>
       </c>
       <c r="D32" t="n">
-        <v>746.6794958688016</v>
+        <v>722.9911724139236</v>
       </c>
       <c r="E32" t="n">
-        <v>320.7025560166592</v>
+        <v>722.9911724139236</v>
       </c>
       <c r="F32" t="n">
-        <v>320.7025560166592</v>
+        <v>722.9911724139236</v>
       </c>
       <c r="G32" t="n">
         <v>320.7025560166592</v>
@@ -6703,10 +6703,10 @@
         <v>228.5477172037496</v>
       </c>
       <c r="K32" t="n">
-        <v>448.7747784804928</v>
+        <v>448.7747784804926</v>
       </c>
       <c r="L32" t="n">
-        <v>727.9824581050664</v>
+        <v>727.9824581050661</v>
       </c>
       <c r="M32" t="n">
         <v>1043.801082832444</v>
@@ -6730,22 +6730,22 @@
         <v>2134.022630614366</v>
       </c>
       <c r="T32" t="n">
-        <v>2134.022630614366</v>
+        <v>1922.072887082163</v>
       </c>
       <c r="U32" t="n">
-        <v>1875.831756891841</v>
+        <v>1663.882013359638</v>
       </c>
       <c r="V32" t="n">
-        <v>1518.342342018091</v>
+        <v>1306.392598485888</v>
       </c>
       <c r="W32" t="n">
-        <v>1518.342342018091</v>
+        <v>910.0012487862346</v>
       </c>
       <c r="X32" t="n">
-        <v>1518.342342018091</v>
+        <v>910.0012487862346</v>
       </c>
       <c r="Y32" t="n">
-        <v>1113.005071972981</v>
+        <v>722.9911724139236</v>
       </c>
     </row>
     <row r="33">
@@ -6776,25 +6776,25 @@
         <v>43.83330772426899</v>
       </c>
       <c r="I33" t="n">
-        <v>64.84342863053153</v>
+        <v>88.30073447494337</v>
       </c>
       <c r="J33" t="n">
-        <v>146.0262857709435</v>
+        <v>265.0421481579399</v>
       </c>
       <c r="K33" t="n">
-        <v>297.4808782569462</v>
+        <v>416.4967406439425</v>
       </c>
       <c r="L33" t="n">
-        <v>508.6576814496921</v>
+        <v>627.6735438366884</v>
       </c>
       <c r="M33" t="n">
-        <v>758.2365412873041</v>
+        <v>877.2524036743005</v>
       </c>
       <c r="N33" t="n">
-        <v>1016.762415698551</v>
+        <v>1135.778278085548</v>
       </c>
       <c r="O33" t="n">
-        <v>1249.652366935845</v>
+        <v>1368.668229322841</v>
       </c>
       <c r="P33" t="n">
         <v>1552.441323867022</v>
@@ -6834,16 +6834,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>296.6961053952941</v>
+        <v>789.301515678378</v>
       </c>
       <c r="C34" t="n">
-        <v>279.258972484708</v>
+        <v>617.328952557294</v>
       </c>
       <c r="D34" t="n">
-        <v>115.9421996114787</v>
+        <v>454.0121796840647</v>
       </c>
       <c r="E34" t="n">
-        <v>115.9421996114787</v>
+        <v>287.8039738369183</v>
       </c>
       <c r="F34" t="n">
         <v>115.9421996114787</v>
@@ -6858,19 +6858,19 @@
         <v>43.83330772426899</v>
       </c>
       <c r="J34" t="n">
-        <v>87.13587819270248</v>
+        <v>165.0575948409233</v>
       </c>
       <c r="K34" t="n">
-        <v>381.6345055669486</v>
+        <v>496.3180254984903</v>
       </c>
       <c r="L34" t="n">
-        <v>870.3457903084421</v>
+        <v>985.0293102399839</v>
       </c>
       <c r="M34" t="n">
-        <v>989.3034740049304</v>
+        <v>1103.986993936472</v>
       </c>
       <c r="N34" t="n">
-        <v>1106.709457826329</v>
+        <v>1221.392977757871</v>
       </c>
       <c r="O34" t="n">
         <v>1589.554333948619</v>
@@ -6882,28 +6882,28 @@
         <v>2191.665386213449</v>
       </c>
       <c r="R34" t="n">
-        <v>2185.982504260494</v>
+        <v>2191.665386213449</v>
       </c>
       <c r="S34" t="n">
-        <v>2031.8763562978</v>
+        <v>2191.665386213449</v>
       </c>
       <c r="T34" t="n">
-        <v>1792.466889991379</v>
+        <v>2010.219896446976</v>
       </c>
       <c r="U34" t="n">
-        <v>1512.332610191271</v>
+        <v>1730.085616646867</v>
       </c>
       <c r="V34" t="n">
-        <v>1230.6211427993</v>
+        <v>1448.374149254896</v>
       </c>
       <c r="W34" t="n">
-        <v>955.7687389718126</v>
+        <v>1448.374149254896</v>
       </c>
       <c r="X34" t="n">
-        <v>713.2048424176177</v>
+        <v>1205.810252700702</v>
       </c>
       <c r="Y34" t="n">
-        <v>486.8620741073597</v>
+        <v>979.4674843904436</v>
       </c>
     </row>
     <row r="35">
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1164.265098784921</v>
+        <v>1144.735107916882</v>
       </c>
       <c r="C35" t="n">
-        <v>1164.265098784921</v>
+        <v>1144.735107916882</v>
       </c>
       <c r="D35" t="n">
-        <v>740.9724779699216</v>
+        <v>1144.735107916882</v>
       </c>
       <c r="E35" t="n">
-        <v>722.9911724139236</v>
+        <v>718.7581680647401</v>
       </c>
       <c r="F35" t="n">
-        <v>722.9911724139236</v>
+        <v>718.7581680647401</v>
       </c>
       <c r="G35" t="n">
-        <v>320.7025560166592</v>
+        <v>316.4695516674756</v>
       </c>
       <c r="H35" t="n">
         <v>43.83330772426899</v>
@@ -6964,25 +6964,25 @@
         <v>2191.665386213449</v>
       </c>
       <c r="S35" t="n">
-        <v>2191.665386213449</v>
+        <v>2134.022630614366</v>
       </c>
       <c r="T35" t="n">
-        <v>2191.665386213449</v>
+        <v>1922.072887082163</v>
       </c>
       <c r="U35" t="n">
-        <v>1933.474512490925</v>
+        <v>1922.072887082163</v>
       </c>
       <c r="V35" t="n">
-        <v>1575.985097617174</v>
+        <v>1564.583472208413</v>
       </c>
       <c r="W35" t="n">
-        <v>1575.985097617174</v>
+        <v>1564.583472208413</v>
       </c>
       <c r="X35" t="n">
-        <v>1164.265098784921</v>
+        <v>1564.583472208413</v>
       </c>
       <c r="Y35" t="n">
-        <v>1164.265098784921</v>
+        <v>1564.583472208413</v>
       </c>
     </row>
     <row r="36">
@@ -7013,31 +7013,31 @@
         <v>43.83330772426899</v>
       </c>
       <c r="I36" t="n">
-        <v>64.84342863053153</v>
+        <v>88.30073447494337</v>
       </c>
       <c r="J36" t="n">
-        <v>370.4976484428457</v>
+        <v>265.0421481579399</v>
       </c>
       <c r="K36" t="n">
-        <v>521.9522409288484</v>
+        <v>416.4967406439425</v>
       </c>
       <c r="L36" t="n">
-        <v>733.1290441215942</v>
+        <v>627.6735438366884</v>
       </c>
       <c r="M36" t="n">
-        <v>982.7079039592063</v>
+        <v>877.2524036743005</v>
       </c>
       <c r="N36" t="n">
-        <v>1241.233778370454</v>
+        <v>1135.778278085548</v>
       </c>
       <c r="O36" t="n">
-        <v>1474.123729607747</v>
+        <v>1368.668229322841</v>
       </c>
       <c r="P36" t="n">
-        <v>1657.896824151927</v>
+        <v>1552.441323867022</v>
       </c>
       <c r="Q36" t="n">
-        <v>1772.632401645602</v>
+        <v>1667.176901360697</v>
       </c>
       <c r="R36" t="n">
         <v>1815.956238873899</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>582.5132671483575</v>
+        <v>924.049290503665</v>
       </c>
       <c r="C37" t="n">
-        <v>410.5407040272735</v>
+        <v>752.076727382581</v>
       </c>
       <c r="D37" t="n">
-        <v>410.5407040272735</v>
+        <v>588.7599545093517</v>
       </c>
       <c r="E37" t="n">
-        <v>244.332498180127</v>
+        <v>588.7599545093517</v>
       </c>
       <c r="F37" t="n">
-        <v>244.332498180127</v>
+        <v>416.8981802839122</v>
       </c>
       <c r="G37" t="n">
-        <v>115.9421996114787</v>
+        <v>251.5609700705797</v>
       </c>
       <c r="H37" t="n">
         <v>115.9421996114787</v>
@@ -7095,19 +7095,19 @@
         <v>43.83330772426899</v>
       </c>
       <c r="J37" t="n">
-        <v>165.0575948409233</v>
+        <v>87.13587819270248</v>
       </c>
       <c r="K37" t="n">
-        <v>496.3180254984903</v>
+        <v>171.1136997362474</v>
       </c>
       <c r="L37" t="n">
-        <v>985.0293102399839</v>
+        <v>522.9070889549467</v>
       </c>
       <c r="M37" t="n">
-        <v>1103.986993936472</v>
+        <v>1055.400253114257</v>
       </c>
       <c r="N37" t="n">
-        <v>1619.425900599751</v>
+        <v>1570.839159777536</v>
       </c>
       <c r="O37" t="n">
         <v>2053.684035899826</v>
@@ -7122,25 +7122,25 @@
         <v>2191.665386213449</v>
       </c>
       <c r="S37" t="n">
-        <v>2037.559238250755</v>
+        <v>2144.967671272263</v>
       </c>
       <c r="T37" t="n">
-        <v>1798.149771944334</v>
+        <v>2144.967671272263</v>
       </c>
       <c r="U37" t="n">
-        <v>1798.149771944334</v>
+        <v>1864.833391472155</v>
       </c>
       <c r="V37" t="n">
-        <v>1516.438304552363</v>
+        <v>1583.121924080183</v>
       </c>
       <c r="W37" t="n">
-        <v>1241.585900724876</v>
+        <v>1583.121924080183</v>
       </c>
       <c r="X37" t="n">
-        <v>999.022004170681</v>
+        <v>1340.558027525989</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.6792358604231</v>
+        <v>1114.215259215731</v>
       </c>
     </row>
     <row r="38">
@@ -7150,16 +7150,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>470.7340377109689</v>
+        <v>894.9344293870113</v>
       </c>
       <c r="C38" t="n">
-        <v>43.83330772426899</v>
+        <v>894.9344293870113</v>
       </c>
       <c r="D38" t="n">
-        <v>43.83330772426899</v>
+        <v>894.9344293870113</v>
       </c>
       <c r="E38" t="n">
-        <v>43.83330772426899</v>
+        <v>468.9574895348688</v>
       </c>
       <c r="F38" t="n">
         <v>43.83330772426899</v>
@@ -7201,25 +7201,25 @@
         <v>2191.665386213449</v>
       </c>
       <c r="S38" t="n">
-        <v>2134.022630614366</v>
+        <v>2191.665386213449</v>
       </c>
       <c r="T38" t="n">
-        <v>1922.072887082163</v>
+        <v>2191.665386213449</v>
       </c>
       <c r="U38" t="n">
-        <v>1663.882013359638</v>
+        <v>1933.474512490925</v>
       </c>
       <c r="V38" t="n">
-        <v>1306.392598485888</v>
+        <v>1703.045777918917</v>
       </c>
       <c r="W38" t="n">
-        <v>910.0012487862346</v>
+        <v>1306.654428219264</v>
       </c>
       <c r="X38" t="n">
-        <v>498.2812499539818</v>
+        <v>894.9344293870113</v>
       </c>
       <c r="Y38" t="n">
-        <v>470.7340377109689</v>
+        <v>894.9344293870113</v>
       </c>
     </row>
     <row r="39">
@@ -7253,19 +7253,19 @@
         <v>64.84342863053153</v>
       </c>
       <c r="J39" t="n">
-        <v>146.0262857709435</v>
+        <v>370.4976484428457</v>
       </c>
       <c r="K39" t="n">
-        <v>297.4808782569462</v>
+        <v>521.9522409288484</v>
       </c>
       <c r="L39" t="n">
-        <v>508.6576814496921</v>
+        <v>733.1290441215942</v>
       </c>
       <c r="M39" t="n">
-        <v>758.2365412873041</v>
+        <v>982.7079039592063</v>
       </c>
       <c r="N39" t="n">
-        <v>1016.762415698551</v>
+        <v>1241.233778370454</v>
       </c>
       <c r="O39" t="n">
         <v>1474.123729607747</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>550.9844179440219</v>
+        <v>916.5544879746674</v>
       </c>
       <c r="C40" t="n">
-        <v>379.0118548229378</v>
+        <v>744.5819248535834</v>
       </c>
       <c r="D40" t="n">
-        <v>215.6950819497086</v>
+        <v>581.2651519803541</v>
       </c>
       <c r="E40" t="n">
-        <v>215.6950819497086</v>
+        <v>415.0569461332076</v>
       </c>
       <c r="F40" t="n">
-        <v>43.83330772426899</v>
+        <v>344.7892883967024</v>
       </c>
       <c r="G40" t="n">
-        <v>43.83330772426899</v>
+        <v>179.45207818337</v>
       </c>
       <c r="H40" t="n">
         <v>43.83330772426899</v>
@@ -7332,25 +7332,25 @@
         <v>43.83330772426899</v>
       </c>
       <c r="J40" t="n">
-        <v>165.0575948409233</v>
+        <v>87.13587819270248</v>
       </c>
       <c r="K40" t="n">
-        <v>496.3180254984903</v>
+        <v>171.1136997362474</v>
       </c>
       <c r="L40" t="n">
-        <v>985.0293102399839</v>
+        <v>659.8249844777411</v>
       </c>
       <c r="M40" t="n">
-        <v>1103.986993936472</v>
+        <v>1192.318148637051</v>
       </c>
       <c r="N40" t="n">
-        <v>1419.465662399637</v>
+        <v>1707.75705530033</v>
       </c>
       <c r="O40" t="n">
-        <v>1902.310538521927</v>
+        <v>2053.684035899826</v>
       </c>
       <c r="P40" t="n">
-        <v>1989.180585230913</v>
+        <v>2140.554082608812</v>
       </c>
       <c r="Q40" t="n">
         <v>2191.665386213449</v>
@@ -7359,25 +7359,25 @@
         <v>2185.982504260494</v>
       </c>
       <c r="S40" t="n">
-        <v>2031.8763562978</v>
+        <v>2185.982504260494</v>
       </c>
       <c r="T40" t="n">
-        <v>1792.466889991379</v>
+        <v>2185.982504260494</v>
       </c>
       <c r="U40" t="n">
-        <v>1766.620922739998</v>
+        <v>1905.848224460386</v>
       </c>
       <c r="V40" t="n">
-        <v>1484.909455348027</v>
+        <v>1624.136757068415</v>
       </c>
       <c r="W40" t="n">
-        <v>1210.05705152054</v>
+        <v>1349.284353240928</v>
       </c>
       <c r="X40" t="n">
-        <v>967.4931549663454</v>
+        <v>1106.720456686733</v>
       </c>
       <c r="Y40" t="n">
-        <v>741.1503866560874</v>
+        <v>1106.720456686733</v>
       </c>
     </row>
     <row r="41">
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1321.835159373711</v>
+        <v>1297.223045784276</v>
       </c>
       <c r="C41" t="n">
-        <v>894.9344293870113</v>
+        <v>1297.223045784276</v>
       </c>
       <c r="D41" t="n">
-        <v>894.9344293870113</v>
+        <v>1297.223045784276</v>
       </c>
       <c r="E41" t="n">
-        <v>468.9574895348688</v>
+        <v>871.2461059321332</v>
       </c>
       <c r="F41" t="n">
-        <v>43.83330772426899</v>
+        <v>446.1219241215334</v>
       </c>
       <c r="G41" t="n">
-        <v>43.83330772426899</v>
+        <v>43.833307724269</v>
       </c>
       <c r="H41" t="n">
-        <v>43.83330772426899</v>
+        <v>43.833307724269</v>
       </c>
       <c r="I41" t="n">
         <v>87.10761271643844</v>
@@ -7417,7 +7417,7 @@
         <v>448.7747784804926</v>
       </c>
       <c r="L41" t="n">
-        <v>727.9824581050661</v>
+        <v>727.9824581050663</v>
       </c>
       <c r="M41" t="n">
         <v>1043.801082832444</v>
@@ -7426,7 +7426,7 @@
         <v>1365.479726947678</v>
       </c>
       <c r="O41" t="n">
-        <v>1667.064768900565</v>
+        <v>1667.064768900566</v>
       </c>
       <c r="P41" t="n">
         <v>1918.854212151231</v>
@@ -7435,28 +7435,28 @@
         <v>2100.109526681866</v>
       </c>
       <c r="R41" t="n">
-        <v>2191.665386213449</v>
+        <v>2191.66538621345</v>
       </c>
       <c r="S41" t="n">
-        <v>2134.022630614366</v>
+        <v>2191.66538621345</v>
       </c>
       <c r="T41" t="n">
-        <v>1922.072887082163</v>
+        <v>2191.66538621345</v>
       </c>
       <c r="U41" t="n">
-        <v>1922.072887082163</v>
+        <v>2191.66538621345</v>
       </c>
       <c r="V41" t="n">
-        <v>1922.072887082163</v>
+        <v>2191.66538621345</v>
       </c>
       <c r="W41" t="n">
-        <v>1922.072887082163</v>
+        <v>2114.280314661638</v>
       </c>
       <c r="X41" t="n">
-        <v>1727.172429418821</v>
+        <v>1702.560315829385</v>
       </c>
       <c r="Y41" t="n">
-        <v>1321.835159373711</v>
+        <v>1297.223045784276</v>
       </c>
     </row>
     <row r="42">
@@ -7484,34 +7484,34 @@
         <v>86.6138662670264</v>
       </c>
       <c r="H42" t="n">
-        <v>43.83330772426899</v>
+        <v>43.833307724269</v>
       </c>
       <c r="I42" t="n">
-        <v>64.84342863053153</v>
+        <v>88.3007344749434</v>
       </c>
       <c r="J42" t="n">
-        <v>146.0262857709435</v>
+        <v>169.4835916153554</v>
       </c>
       <c r="K42" t="n">
-        <v>297.4808782569462</v>
+        <v>320.938184101358</v>
       </c>
       <c r="L42" t="n">
-        <v>508.6576814496921</v>
+        <v>532.1149872941039</v>
       </c>
       <c r="M42" t="n">
-        <v>758.2365412873041</v>
+        <v>781.6938471317161</v>
       </c>
       <c r="N42" t="n">
-        <v>1241.233778370454</v>
+        <v>1040.219721542963</v>
       </c>
       <c r="O42" t="n">
-        <v>1474.123729607747</v>
+        <v>1273.109672780256</v>
       </c>
       <c r="P42" t="n">
-        <v>1657.896824151927</v>
+        <v>1456.882767324437</v>
       </c>
       <c r="Q42" t="n">
-        <v>1772.632401645602</v>
+        <v>1667.176901360697</v>
       </c>
       <c r="R42" t="n">
         <v>1815.956238873899</v>
@@ -7545,10 +7545,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1090.257496350811</v>
+        <v>926.9407234775822</v>
       </c>
       <c r="C43" t="n">
-        <v>918.2849332297275</v>
+        <v>754.9681603564982</v>
       </c>
       <c r="D43" t="n">
         <v>754.9681603564982</v>
@@ -7566,55 +7566,55 @@
         <v>115.9421996114787</v>
       </c>
       <c r="I43" t="n">
-        <v>43.83330772426899</v>
+        <v>43.833307724269</v>
       </c>
       <c r="J43" t="n">
         <v>87.13587819270248</v>
       </c>
       <c r="K43" t="n">
-        <v>171.1136997362474</v>
+        <v>418.3963088502695</v>
       </c>
       <c r="L43" t="n">
-        <v>659.8249844777411</v>
+        <v>530.7187000005981</v>
       </c>
       <c r="M43" t="n">
-        <v>1192.318148637051</v>
+        <v>1063.211864159908</v>
       </c>
       <c r="N43" t="n">
-        <v>1309.72413245845</v>
+        <v>1578.650770823187</v>
       </c>
       <c r="O43" t="n">
-        <v>1792.56900858074</v>
+        <v>2053.684035899827</v>
       </c>
       <c r="P43" t="n">
-        <v>1989.180585230913</v>
+        <v>2140.554082608812</v>
       </c>
       <c r="Q43" t="n">
-        <v>2191.665386213449</v>
+        <v>2191.66538621345</v>
       </c>
       <c r="R43" t="n">
-        <v>2191.665386213449</v>
+        <v>2185.982504260495</v>
       </c>
       <c r="S43" t="n">
-        <v>2191.665386213449</v>
+        <v>2185.982504260495</v>
       </c>
       <c r="T43" t="n">
-        <v>1952.255919907028</v>
+        <v>1946.573037954074</v>
       </c>
       <c r="U43" t="n">
-        <v>1672.12164010692</v>
+        <v>1666.438758153965</v>
       </c>
       <c r="V43" t="n">
-        <v>1591.452668488556</v>
+        <v>1666.438758153965</v>
       </c>
       <c r="W43" t="n">
-        <v>1316.600264661069</v>
+        <v>1586.013357054101</v>
       </c>
       <c r="X43" t="n">
-        <v>1316.600264661069</v>
+        <v>1343.449460499906</v>
       </c>
       <c r="Y43" t="n">
-        <v>1090.257496350811</v>
+        <v>1117.106692189648</v>
       </c>
     </row>
     <row r="44">
@@ -7624,43 +7624,43 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1663.882013359639</v>
+        <v>1745.127780188711</v>
       </c>
       <c r="C44" t="n">
-        <v>1236.981283372939</v>
+        <v>1318.227050202011</v>
       </c>
       <c r="D44" t="n">
-        <v>1236.981283372939</v>
+        <v>894.9344293870113</v>
       </c>
       <c r="E44" t="n">
-        <v>1148.115354224523</v>
+        <v>468.9574895348688</v>
       </c>
       <c r="F44" t="n">
-        <v>722.9911724139236</v>
+        <v>43.833307724269</v>
       </c>
       <c r="G44" t="n">
-        <v>320.7025560166591</v>
+        <v>43.833307724269</v>
       </c>
       <c r="H44" t="n">
         <v>43.833307724269</v>
       </c>
       <c r="I44" t="n">
-        <v>87.10761271643844</v>
+        <v>87.10761271643887</v>
       </c>
       <c r="J44" t="n">
-        <v>228.5477172037496</v>
+        <v>228.54771720375</v>
       </c>
       <c r="K44" t="n">
-        <v>448.7747784804926</v>
+        <v>448.7747784804931</v>
       </c>
       <c r="L44" t="n">
-        <v>727.9824581050663</v>
+        <v>727.9824581050667</v>
       </c>
       <c r="M44" t="n">
-        <v>1043.801082832444</v>
+        <v>1043.801082832445</v>
       </c>
       <c r="N44" t="n">
-        <v>1365.479726947678</v>
+        <v>1365.479726947679</v>
       </c>
       <c r="O44" t="n">
         <v>1667.064768900566</v>
@@ -7675,25 +7675,25 @@
         <v>2191.66538621345</v>
       </c>
       <c r="S44" t="n">
-        <v>2134.022630614367</v>
+        <v>2191.66538621345</v>
       </c>
       <c r="T44" t="n">
-        <v>1922.072887082164</v>
+        <v>2191.66538621345</v>
       </c>
       <c r="U44" t="n">
-        <v>1663.882013359639</v>
+        <v>2164.976144480241</v>
       </c>
       <c r="V44" t="n">
-        <v>1663.882013359639</v>
+        <v>2164.976144480241</v>
       </c>
       <c r="W44" t="n">
-        <v>1663.882013359639</v>
+        <v>2164.976144480241</v>
       </c>
       <c r="X44" t="n">
-        <v>1663.882013359639</v>
+        <v>2164.976144480241</v>
       </c>
       <c r="Y44" t="n">
-        <v>1663.882013359639</v>
+        <v>2164.976144480241</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>974.9733260640813</v>
+        <v>599.2641787245311</v>
       </c>
       <c r="C45" t="n">
-        <v>857.4674225815861</v>
+        <v>481.7582752420359</v>
       </c>
       <c r="D45" t="n">
-        <v>753.6274640968711</v>
+        <v>377.918316757321</v>
       </c>
       <c r="E45" t="n">
-        <v>648.9255303698084</v>
+        <v>273.2163830302582</v>
       </c>
       <c r="F45" t="n">
-        <v>555.2797000527125</v>
+        <v>179.5705527131623</v>
       </c>
       <c r="G45" t="n">
-        <v>462.3230136065766</v>
+        <v>86.6138662670264</v>
       </c>
       <c r="H45" t="n">
-        <v>419.5424550638193</v>
+        <v>43.833307724269</v>
       </c>
       <c r="I45" t="n">
-        <v>440.5525759700818</v>
+        <v>88.3007344749434</v>
       </c>
       <c r="J45" t="n">
-        <v>521.7354331104939</v>
+        <v>169.4835916153554</v>
       </c>
       <c r="K45" t="n">
-        <v>673.1900255964965</v>
+        <v>320.938184101358</v>
       </c>
       <c r="L45" t="n">
-        <v>1108.838191461145</v>
+        <v>532.1149872941039</v>
       </c>
       <c r="M45" t="n">
-        <v>1358.417051298757</v>
+        <v>781.6938471317161</v>
       </c>
       <c r="N45" t="n">
-        <v>1616.942925710004</v>
+        <v>1040.219721542963</v>
       </c>
       <c r="O45" t="n">
-        <v>1849.832876947297</v>
+        <v>1273.109672780256</v>
       </c>
       <c r="P45" t="n">
-        <v>2033.605971491478</v>
+        <v>1456.882767324437</v>
       </c>
       <c r="Q45" t="n">
-        <v>2148.341548985153</v>
+        <v>1667.176901360697</v>
       </c>
       <c r="R45" t="n">
-        <v>2191.66538621345</v>
+        <v>1815.956238873899</v>
       </c>
       <c r="S45" t="n">
-        <v>2130.719017717956</v>
+        <v>1755.009870378406</v>
       </c>
       <c r="T45" t="n">
-        <v>1993.261105805209</v>
+        <v>1617.551958465659</v>
       </c>
       <c r="U45" t="n">
-        <v>1808.565086391705</v>
+        <v>1432.855939052155</v>
       </c>
       <c r="V45" t="n">
-        <v>1603.591947530972</v>
+        <v>1227.882800191421</v>
       </c>
       <c r="W45" t="n">
-        <v>1407.070570364189</v>
+        <v>1031.361423024638</v>
       </c>
       <c r="X45" t="n">
-        <v>1243.593224130852</v>
+        <v>867.8840767913015</v>
       </c>
       <c r="Y45" t="n">
-        <v>1103.900335484144</v>
+        <v>728.1911881445939</v>
       </c>
     </row>
     <row r="46">
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>754.9681603564982</v>
+        <v>719.2130611312715</v>
       </c>
       <c r="C46" t="n">
-        <v>754.9681603564982</v>
+        <v>547.2404980101875</v>
       </c>
       <c r="D46" t="n">
-        <v>754.9681603564982</v>
+        <v>547.2404980101875</v>
       </c>
       <c r="E46" t="n">
-        <v>588.7599545093517</v>
+        <v>381.032292163041</v>
       </c>
       <c r="F46" t="n">
-        <v>416.8981802839122</v>
+        <v>209.1705179376014</v>
       </c>
       <c r="G46" t="n">
-        <v>251.5609700705797</v>
+        <v>43.833307724269</v>
       </c>
       <c r="H46" t="n">
-        <v>115.9421996114787</v>
+        <v>43.833307724269</v>
       </c>
       <c r="I46" t="n">
         <v>43.833307724269</v>
@@ -7809,22 +7809,22 @@
         <v>87.13587819270248</v>
       </c>
       <c r="K46" t="n">
-        <v>381.6345055669489</v>
+        <v>171.1136997362474</v>
       </c>
       <c r="L46" t="n">
-        <v>870.3457903084425</v>
+        <v>587.8532086848428</v>
       </c>
       <c r="M46" t="n">
-        <v>989.3034740049308</v>
+        <v>1120.346372844153</v>
       </c>
       <c r="N46" t="n">
-        <v>1106.70945782633</v>
+        <v>1635.785279507432</v>
       </c>
       <c r="O46" t="n">
-        <v>1589.55433394862</v>
+        <v>1740.927831326519</v>
       </c>
       <c r="P46" t="n">
-        <v>1989.180585230913</v>
+        <v>2140.554082608812</v>
       </c>
       <c r="Q46" t="n">
         <v>2191.66538621345</v>
@@ -7833,25 +7833,25 @@
         <v>2185.982504260495</v>
       </c>
       <c r="S46" t="n">
-        <v>2031.876356297801</v>
+        <v>2185.982504260495</v>
       </c>
       <c r="T46" t="n">
-        <v>1792.46688999138</v>
+        <v>1946.573037954074</v>
       </c>
       <c r="U46" t="n">
-        <v>1537.874799886214</v>
+        <v>1708.50679761699</v>
       </c>
       <c r="V46" t="n">
-        <v>1256.163332494243</v>
+        <v>1426.795330225019</v>
       </c>
       <c r="W46" t="n">
-        <v>981.3109286667561</v>
+        <v>1151.942926397532</v>
       </c>
       <c r="X46" t="n">
-        <v>981.3109286667561</v>
+        <v>909.3790298433371</v>
       </c>
       <c r="Y46" t="n">
-        <v>754.9681603564982</v>
+        <v>909.3790298433371</v>
       </c>
     </row>
   </sheetData>
@@ -8768,7 +8768,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>226.7387501736388</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8780,7 +8780,7 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>226.7387501736389</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -8847,13 +8847,13 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L13" t="n">
-        <v>175.125473696004</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
         <v>417.7126065281028</v>
@@ -8862,7 +8862,7 @@
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>381.5174992961649</v>
+        <v>228.1537550505098</v>
       </c>
       <c r="P13" t="n">
         <v>315.9153581548562</v>
@@ -9002,7 +9002,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -9026,7 +9026,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>120.2180428151478</v>
+        <v>96.52379448745955</v>
       </c>
       <c r="R15" t="n">
         <v>106.5207073584907</v>
@@ -9084,13 +9084,13 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L16" t="n">
-        <v>96.41666900083129</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M16" t="n">
         <v>417.7126065281028</v>
@@ -9099,10 +9099,10 @@
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>381.5174992961649</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>315.9153581548562</v>
+        <v>242.5871162933012</v>
       </c>
       <c r="Q16" t="n">
         <v>152.9025226039384</v>
@@ -9242,7 +9242,7 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J18" t="n">
-        <v>203.0445018459501</v>
+        <v>96.5237944874594</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -9266,7 +9266,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9324,7 +9324,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>249.7804132464869</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
         <v>380.1908016072373</v>
@@ -9333,13 +9333,13 @@
         <v>417.7126065281028</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>263.7525528475609</v>
       </c>
       <c r="O19" t="n">
-        <v>79.57428074238373</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P19" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -9476,7 +9476,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -9491,19 +9491,19 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>226.7387501736389</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>96.52379448745955</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9564,19 +9564,19 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>380.1908016072373</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>417.7126065281028</v>
       </c>
       <c r="N22" t="n">
         <v>402.0534574160406</v>
       </c>
       <c r="O22" t="n">
-        <v>113.4025158018211</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P22" t="n">
-        <v>315.9153581548562</v>
+        <v>10.27856973964734</v>
       </c>
       <c r="Q22" t="n">
         <v>152.9025226039384</v>
@@ -9713,13 +9713,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J24" t="n">
-        <v>226.7387501736386</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>203.0445018459499</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9795,16 +9795,16 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>112.0758181128935</v>
+        <v>241.8898970387579</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>417.7126065281028</v>
       </c>
       <c r="N25" t="n">
         <v>402.0534574160406</v>
@@ -9813,10 +9813,10 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P25" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -9953,7 +9953,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>226.7387501736386</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>120.2180428151478</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>106.5207073584907</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10032,13 +10032,13 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>241.8898970387579</v>
       </c>
       <c r="M28" t="n">
         <v>417.7126065281028</v>
@@ -10047,13 +10047,13 @@
         <v>402.0534574160406</v>
       </c>
       <c r="O28" t="n">
-        <v>75.88071088095586</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P28" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10187,10 +10187,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>203.0445018459499</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>120.2180428151478</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>106.5207073584907</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10269,28 +10269,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>249.7804132464869</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>228.1537550505096</v>
+        <v>241.8898970387583</v>
       </c>
       <c r="M31" t="n">
         <v>417.7126065281028</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P31" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10424,10 +10424,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>96.52379448745911</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -10445,7 +10445,7 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>120.2180428151478</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -10506,10 +10506,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K34" t="n">
-        <v>212.6472786168699</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L34" t="n">
         <v>380.1908016072373</v>
@@ -10521,7 +10521,7 @@
         <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>381.5174992961649</v>
+        <v>265.675559971375</v>
       </c>
       <c r="P34" t="n">
         <v>315.9153581548562</v>
@@ -10661,10 +10661,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J36" t="n">
-        <v>226.7387501736386</v>
+        <v>96.52379448745911</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -10688,7 +10688,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10743,22 +10743,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>249.7804132464869</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>380.1908016072373</v>
+        <v>241.8898970387583</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>417.7126065281028</v>
       </c>
       <c r="N37" t="n">
         <v>402.0534574160406</v>
       </c>
       <c r="O37" t="n">
-        <v>332.439983314129</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
@@ -10901,7 +10901,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>226.7387501736386</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -10916,7 +10916,7 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>226.7387501736385</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -10980,28 +10980,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>249.7804132464869</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
         <v>380.1908016072373</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>417.7126065281028</v>
       </c>
       <c r="N40" t="n">
-        <v>200.0734188300662</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O40" t="n">
-        <v>381.5174992961649</v>
+        <v>243.2165947276856</v>
       </c>
       <c r="P40" t="n">
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11135,7 +11135,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -11150,7 +11150,7 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>226.7387501736386</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -11159,10 +11159,10 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>96.52379448745907</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11220,25 +11220,25 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L43" t="n">
-        <v>380.1908016072373</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
         <v>417.7126065281028</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O43" t="n">
-        <v>381.5174992961649</v>
+        <v>373.6269830884368</v>
       </c>
       <c r="P43" t="n">
-        <v>110.8500302436229</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11372,7 +11372,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -11381,7 +11381,7 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>226.7387501736385</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11396,10 +11396,10 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>96.52379448745907</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11457,25 +11457,25 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>212.6472786168702</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>380.1908016072373</v>
+        <v>307.4920381800674</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>417.7126065281028</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O46" t="n">
-        <v>381.5174992961649</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
         <v>315.9153581548562</v>
       </c>
       <c r="Q46" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23260,16 +23260,16 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C11" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
-        <v>103.1828637395241</v>
+        <v>387.9114672523584</v>
       </c>
       <c r="F11" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23308,25 +23308,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>57.06632804309218</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>209.8302460968812</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>255.6089649852995</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y11" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23415,19 +23415,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>128.0776693824878</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>71.38780296833761</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>5.626053133425557</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23472,19 +23472,19 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>277.3329370021073</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>95.94919039175485</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y13" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23497,19 +23497,19 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C14" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>199.2481176675119</v>
       </c>
       <c r="F14" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
-        <v>398.2657302332918</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23548,13 +23548,13 @@
         <v>57.06632804309218</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>209.8302460968812</v>
       </c>
       <c r="U14" t="n">
-        <v>197.7043965545816</v>
+        <v>255.6089649852995</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
         <v>392.4274362026566</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>91.52989867515524</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>170.2528374898731</v>
@@ -23667,10 +23667,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>59.1456498359304</v>
       </c>
       <c r="H16" t="n">
-        <v>134.26258275451</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23703,16 +23703,16 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>152.5650864830671</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>237.0153716433569</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>277.3329370021073</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23734,16 +23734,16 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C17" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E17" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G17" t="n">
         <v>398.2657302332918</v>
@@ -23782,22 +23782,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>57.06632804309218</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>209.8302460968812</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>49.38737075002803</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W17" t="n">
-        <v>116.8136961526826</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X17" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23901,7 +23901,7 @@
         <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
-        <v>27.66608879608512</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
         <v>163.6838381111991</v>
@@ -23910,7 +23910,7 @@
         <v>134.26258275451</v>
       </c>
       <c r="I19" t="n">
-        <v>71.38780296833761</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23952,13 +23952,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>152.9900759083938</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23968,22 +23968,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>395.4758189756952</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D20" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>394.2175962038007</v>
       </c>
       <c r="G20" t="n">
-        <v>398.2657302332918</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>274.1005558094662</v>
@@ -24019,7 +24019,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>57.06632804309218</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -24028,13 +24028,13 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W20" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24138,16 +24138,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>163.6838381111991</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>134.26258275451</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>71.38780296833761</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>5.626053133425557</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24183,19 +24183,19 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>277.3329370021073</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>230.5629071212171</v>
       </c>
       <c r="W22" t="n">
-        <v>22.06905610157528</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24211,7 +24211,7 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D23" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>421.717170453621</v>
@@ -24220,10 +24220,10 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>378.0916685603723</v>
+        <v>398.2657302332918</v>
       </c>
       <c r="H23" t="n">
-        <v>274.1005558094662</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24256,25 +24256,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>57.06632804309218</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>209.8302460968812</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>43.31863273640792</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W23" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="24">
@@ -24369,13 +24369,13 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>21.0970894174115</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24384,7 +24384,7 @@
         <v>134.26258275451</v>
       </c>
       <c r="I25" t="n">
-        <v>71.38780296833761</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>5.626053133425543</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24426,13 +24426,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>33.23726739575662</v>
       </c>
       <c r="Y25" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24442,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C26" t="n">
         <v>422.6317226868329</v>
@@ -24454,13 +24454,13 @@
         <v>421.717170453621</v>
       </c>
       <c r="F26" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>246.6751278256149</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>274.1005558094662</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24496,7 +24496,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>209.8302460968812</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>255.6089649852995</v>
@@ -24508,7 +24508,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>187.6278774569092</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24603,7 +24603,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24612,16 +24612,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>163.6838381111991</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>134.26258275451</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>71.38780296833761</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,13 +24651,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>152.5650864830671</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>237.0153716433569</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>277.3329370021073</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24666,10 +24666,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>75.89555923885703</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>118.7123819174312</v>
       </c>
     </row>
     <row r="29">
@@ -24679,19 +24679,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>195.1225101473016</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D29" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F29" t="n">
-        <v>420.8729399924937</v>
+        <v>416.6045840380153</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -24730,10 +24730,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>57.06632804309218</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>209.8302460968812</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -24742,13 +24742,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W29" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24837,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>22.33957621716132</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
-        <v>163.6838381111991</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>134.26258275451</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>71.38780296833761</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,16 +24888,16 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>152.5650864830671</v>
       </c>
       <c r="T31" t="n">
-        <v>228.0272441869705</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24919,19 +24919,19 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C32" t="n">
-        <v>59.96940234369515</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D32" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F32" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G32" t="n">
-        <v>398.2657302332918</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -24970,7 +24970,7 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>209.8302460968812</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -24979,13 +24979,13 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>216.1439217360707</v>
       </c>
     </row>
     <row r="33">
@@ -25077,16 +25077,16 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>152.990075908393</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>163.6838381111991</v>
@@ -25122,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>5.626053133425543</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>152.5650864830671</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>57.38433677454799</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25137,7 +25137,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25153,16 +25153,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E35" t="n">
-        <v>403.915677953183</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>420.8729399924937</v>
@@ -25171,7 +25171,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>4.190674305691687</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25204,13 +25204,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>57.06632804309218</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>209.8302460968812</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>255.6089649852995</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -25219,7 +25219,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y35" t="n">
         <v>401.2838973446586</v>
@@ -25317,19 +25317,19 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>36.57744252823721</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>134.26258275451</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25362,19 +25362,19 @@
         <v>5.626053133425543</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>106.3343486912926</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>237.0153716433569</v>
       </c>
       <c r="U37" t="n">
-        <v>277.3329370021073</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25393,16 +25393,16 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D38" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E38" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>398.2657302332918</v>
@@ -25441,16 +25441,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>57.06632804309218</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>209.8302460968812</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>125.7900734987257</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -25459,7 +25459,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>374.0121572240758</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="39">
@@ -25557,16 +25557,16 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>100.5781753240451</v>
       </c>
       <c r="G40" t="n">
-        <v>163.6838381111991</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>134.26258275451</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>71.38780296833761</v>
@@ -25599,13 +25599,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>152.5650864830671</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>237.0153716433569</v>
       </c>
       <c r="U40" t="n">
-        <v>251.7454294232404</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="41">
@@ -25630,7 +25630,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D41" t="n">
         <v>419.0596946068497</v>
@@ -25642,7 +25642,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>398.2657302332918</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>274.1005558094662</v>
@@ -25678,10 +25678,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>57.06632804309217</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>209.8302460968812</v>
       </c>
       <c r="U41" t="n">
         <v>255.6089649852995</v>
@@ -25690,10 +25690,10 @@
         <v>353.914520725013</v>
       </c>
       <c r="W41" t="n">
-        <v>392.4274362026566</v>
+        <v>315.8162153663627</v>
       </c>
       <c r="X41" t="n">
-        <v>214.6513457572212</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25785,13 +25785,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>5.626053133425543</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>152.5650864830671</v>
@@ -25845,13 +25845,13 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>199.0320708158714</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>192.482732700346</v>
       </c>
       <c r="X43" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25864,25 +25864,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>333.7399005966897</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>398.2657302332918</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>274.1005558094662</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25915,13 +25915,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>57.06632804309217</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>209.8302460968812</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>229.1866156694224</v>
       </c>
       <c r="V44" t="n">
         <v>353.914520725013</v>
@@ -26022,10 +26022,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>161.683605144497</v>
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>134.26258275451</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>71.38780296833761</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,13 +26073,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>152.5650864830671</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>25.28676779799372</v>
+        <v>41.64735906839448</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26088,10 +26088,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
   </sheetData>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>381821.9682326071</v>
+        <v>381821.9682326072</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>381821.9682326072</v>
+        <v>381821.9682326071</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>381821.9682326071</v>
+        <v>381821.968232607</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>381821.9682326072</v>
+        <v>381821.9682326071</v>
       </c>
     </row>
     <row r="12">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>381821.9682326071</v>
+        <v>381821.9682326074</v>
       </c>
     </row>
     <row r="16">
@@ -26313,22 +26313,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>401630.0479888428</v>
+        <v>401630.047988843</v>
       </c>
       <c r="C2" t="n">
         <v>401630.0479888429</v>
       </c>
       <c r="D2" t="n">
-        <v>401630.0479888428</v>
+        <v>401630.0479888427</v>
       </c>
       <c r="E2" t="n">
+        <v>242748.009207322</v>
+      </c>
+      <c r="F2" t="n">
         <v>242748.0092073221</v>
       </c>
-      <c r="F2" t="n">
-        <v>242748.0092073222</v>
-      </c>
       <c r="G2" t="n">
-        <v>242748.0092073221</v>
+        <v>242748.009207322</v>
       </c>
       <c r="H2" t="n">
         <v>242748.0092073221</v>
@@ -26337,25 +26337,25 @@
         <v>242748.0092073221</v>
       </c>
       <c r="J2" t="n">
-        <v>242748.0092073222</v>
+        <v>242748.0092073221</v>
       </c>
       <c r="K2" t="n">
         <v>242748.0092073222</v>
       </c>
       <c r="L2" t="n">
+        <v>242748.0092073221</v>
+      </c>
+      <c r="M2" t="n">
         <v>242748.0092073222</v>
       </c>
-      <c r="M2" t="n">
-        <v>242748.0092073221</v>
-      </c>
       <c r="N2" t="n">
-        <v>242748.0092073221</v>
+        <v>242748.0092073222</v>
       </c>
       <c r="O2" t="n">
         <v>242748.0092073222</v>
       </c>
       <c r="P2" t="n">
-        <v>242748.0092073223</v>
+        <v>242748.0092073222</v>
       </c>
     </row>
     <row r="3">
@@ -26420,7 +26420,7 @@
         <v>320775.5268176608</v>
       </c>
       <c r="C4" t="n">
-        <v>320775.5268176608</v>
+        <v>320775.5268176607</v>
       </c>
       <c r="D4" t="n">
         <v>320775.5268176608</v>
@@ -26429,10 +26429,10 @@
         <v>18150.94444527884</v>
       </c>
       <c r="F4" t="n">
+        <v>18150.94444527884</v>
+      </c>
+      <c r="G4" t="n">
         <v>18150.94444527883</v>
-      </c>
-      <c r="G4" t="n">
-        <v>18150.94444527884</v>
       </c>
       <c r="H4" t="n">
         <v>18150.94444527884</v>
@@ -26456,10 +26456,10 @@
         <v>18150.94444527883</v>
       </c>
       <c r="O4" t="n">
-        <v>18150.94444527883</v>
+        <v>18150.94444527884</v>
       </c>
       <c r="P4" t="n">
-        <v>18150.94444527883</v>
+        <v>18150.94444527884</v>
       </c>
     </row>
     <row r="5">
@@ -26484,7 +26484,7 @@
         <v>44321.17942781076</v>
       </c>
       <c r="G5" t="n">
-        <v>44321.17942781076</v>
+        <v>44321.17942781075</v>
       </c>
       <c r="H5" t="n">
         <v>44321.17942781076</v>
@@ -26493,7 +26493,7 @@
         <v>44321.17942781076</v>
       </c>
       <c r="J5" t="n">
-        <v>44321.17942781077</v>
+        <v>44321.17942781076</v>
       </c>
       <c r="K5" t="n">
         <v>44321.17942781077</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>47226.92117118201</v>
+        <v>47205.2075296859</v>
       </c>
       <c r="C6" t="n">
-        <v>47226.92117118213</v>
+        <v>47205.20752968584</v>
       </c>
       <c r="D6" t="n">
-        <v>47226.92117118207</v>
+        <v>47205.20752968561</v>
       </c>
       <c r="E6" t="n">
-        <v>-388996.588577105</v>
+        <v>-389585.7380713927</v>
       </c>
       <c r="F6" t="n">
-        <v>180275.8853342326</v>
+        <v>179686.735839945</v>
       </c>
       <c r="G6" t="n">
-        <v>180275.8853342325</v>
+        <v>179686.735839945</v>
       </c>
       <c r="H6" t="n">
-        <v>180275.8853342326</v>
+        <v>179686.7358399451</v>
       </c>
       <c r="I6" t="n">
-        <v>180275.8853342325</v>
+        <v>179686.7358399451</v>
       </c>
       <c r="J6" t="n">
-        <v>180275.8853342326</v>
+        <v>179686.7358399451</v>
       </c>
       <c r="K6" t="n">
-        <v>180275.8853342326</v>
+        <v>179686.7358399451</v>
       </c>
       <c r="L6" t="n">
-        <v>180275.8853342326</v>
+        <v>179686.7358399451</v>
       </c>
       <c r="M6" t="n">
-        <v>43732.94010774845</v>
+        <v>43143.79061346101</v>
       </c>
       <c r="N6" t="n">
-        <v>180275.8853342325</v>
+        <v>179686.7358399452</v>
       </c>
       <c r="O6" t="n">
-        <v>180275.8853342326</v>
+        <v>179686.7358399451</v>
       </c>
       <c r="P6" t="n">
-        <v>180275.8853342327</v>
+        <v>179686.7358399451</v>
       </c>
     </row>
   </sheetData>
@@ -26749,7 +26749,7 @@
         <v>504.9479613470796</v>
       </c>
       <c r="F3" t="n">
-        <v>504.9479613470797</v>
+        <v>504.9479613470796</v>
       </c>
       <c r="G3" t="n">
         <v>504.9479613470796</v>
@@ -26798,22 +26798,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>547.9163465533622</v>
+        <v>547.9163465533624</v>
       </c>
       <c r="F4" t="n">
-        <v>547.9163465533622</v>
+        <v>547.9163465533624</v>
       </c>
       <c r="G4" t="n">
+        <v>547.9163465533621</v>
+      </c>
+      <c r="H4" t="n">
         <v>547.9163465533624</v>
-      </c>
-      <c r="H4" t="n">
-        <v>547.9163465533622</v>
       </c>
       <c r="I4" t="n">
         <v>547.9163465533622</v>
       </c>
       <c r="J4" t="n">
-        <v>547.9163465533624</v>
+        <v>547.9163465533622</v>
       </c>
       <c r="K4" t="n">
         <v>547.9163465533624</v>
@@ -26828,7 +26828,7 @@
         <v>547.9163465533624</v>
       </c>
       <c r="O4" t="n">
-        <v>547.9163465533624</v>
+        <v>547.9163465533625</v>
       </c>
       <c r="P4" t="n">
         <v>547.9163465533625</v>
@@ -31995,43 +31995,43 @@
         <v>20.7891389312393</v>
       </c>
       <c r="I14" t="n">
-        <v>78.25932172797305</v>
+        <v>78.25932172797302</v>
       </c>
       <c r="J14" t="n">
         <v>172.2887518970119</v>
       </c>
       <c r="K14" t="n">
-        <v>258.2161778420245</v>
+        <v>258.2161778420244</v>
       </c>
       <c r="L14" t="n">
-        <v>320.340001649364</v>
+        <v>320.3400016493639</v>
       </c>
       <c r="M14" t="n">
         <v>356.4399747452679</v>
       </c>
       <c r="N14" t="n">
-        <v>362.207546183167</v>
+        <v>362.2075461831669</v>
       </c>
       <c r="O14" t="n">
         <v>342.022314863991</v>
       </c>
       <c r="P14" t="n">
-        <v>291.9081327704995</v>
+        <v>291.9081327704994</v>
       </c>
       <c r="Q14" t="n">
         <v>219.2108508981686</v>
       </c>
       <c r="R14" t="n">
-        <v>127.5133160883156</v>
+        <v>127.5133160883155</v>
       </c>
       <c r="S14" t="n">
-        <v>46.25729314249882</v>
+        <v>46.25729314249881</v>
       </c>
       <c r="T14" t="n">
-        <v>8.886069148932023</v>
+        <v>8.886069148932021</v>
       </c>
       <c r="U14" t="n">
-        <v>0.162395324252327</v>
+        <v>0.1623953242523269</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32071,10 +32071,10 @@
         <v>1.086114482897492</v>
       </c>
       <c r="H15" t="n">
-        <v>10.48957934798368</v>
+        <v>10.48957934798367</v>
       </c>
       <c r="I15" t="n">
-        <v>37.39473109976015</v>
+        <v>37.39473109976014</v>
       </c>
       <c r="J15" t="n">
         <v>102.6140003337495</v>
@@ -32083,13 +32083,13 @@
         <v>175.3836706878814</v>
       </c>
       <c r="L15" t="n">
-        <v>235.8249889291244</v>
+        <v>235.8249889291243</v>
       </c>
       <c r="M15" t="n">
-        <v>275.1966389341584</v>
+        <v>275.1966389341583</v>
       </c>
       <c r="N15" t="n">
-        <v>282.4802750935895</v>
+        <v>282.4802750935893</v>
       </c>
       <c r="O15" t="n">
         <v>258.4142647093871</v>
@@ -32098,19 +32098,19 @@
         <v>207.4002296332939</v>
       </c>
       <c r="Q15" t="n">
-        <v>138.6415610098624</v>
+        <v>138.6415610098623</v>
       </c>
       <c r="R15" t="n">
-        <v>67.4343711398987</v>
+        <v>67.43437113989869</v>
       </c>
       <c r="S15" t="n">
         <v>20.17410015381963</v>
       </c>
       <c r="T15" t="n">
-        <v>4.377803551678925</v>
+        <v>4.377803551678924</v>
       </c>
       <c r="U15" t="n">
-        <v>0.07145490019062452</v>
+        <v>0.0714549001906245</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,16 +32147,16 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.9105618975111271</v>
+        <v>0.9105618975111269</v>
       </c>
       <c r="H16" t="n">
-        <v>8.095723052417119</v>
+        <v>8.095723052417117</v>
       </c>
       <c r="I16" t="n">
-        <v>27.38307960878918</v>
+        <v>27.38307960878917</v>
       </c>
       <c r="J16" t="n">
-        <v>64.37672615403669</v>
+        <v>64.37672615403667</v>
       </c>
       <c r="K16" t="n">
         <v>105.7907368199291</v>
@@ -32177,19 +32177,19 @@
         <v>110.1283225862548</v>
       </c>
       <c r="Q16" t="n">
-        <v>76.24714216340902</v>
+        <v>76.24714216340901</v>
       </c>
       <c r="R16" t="n">
-        <v>40.94217404627304</v>
+        <v>40.94217404627302</v>
       </c>
       <c r="S16" t="n">
-        <v>15.86861052298937</v>
+        <v>15.86861052298936</v>
       </c>
       <c r="T16" t="n">
-        <v>3.890582653002088</v>
+        <v>3.890582653002087</v>
       </c>
       <c r="U16" t="n">
-        <v>0.04966701259151609</v>
+        <v>0.04966701259151608</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -34122,10 +34122,10 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>2.029941553154087</v>
+        <v>2.029941553154088</v>
       </c>
       <c r="H41" t="n">
-        <v>20.7891389312393</v>
+        <v>20.78913893123931</v>
       </c>
       <c r="I41" t="n">
         <v>78.25932172797305</v>
@@ -34140,19 +34140,19 @@
         <v>320.340001649364</v>
       </c>
       <c r="M41" t="n">
-        <v>356.4399747452679</v>
+        <v>356.439974745268</v>
       </c>
       <c r="N41" t="n">
-        <v>362.207546183167</v>
+        <v>362.2075461831671</v>
       </c>
       <c r="O41" t="n">
-        <v>342.022314863991</v>
+        <v>342.0223148639911</v>
       </c>
       <c r="P41" t="n">
         <v>291.9081327704995</v>
       </c>
       <c r="Q41" t="n">
-        <v>219.2108508981686</v>
+        <v>219.2108508981687</v>
       </c>
       <c r="R41" t="n">
         <v>127.5133160883156</v>
@@ -34161,7 +34161,7 @@
         <v>46.25729314249882</v>
       </c>
       <c r="T41" t="n">
-        <v>8.886069148932023</v>
+        <v>8.886069148932025</v>
       </c>
       <c r="U41" t="n">
         <v>0.162395324252327</v>
@@ -34207,13 +34207,13 @@
         <v>10.48957934798368</v>
       </c>
       <c r="I42" t="n">
-        <v>37.39473109976015</v>
+        <v>37.39473109976016</v>
       </c>
       <c r="J42" t="n">
         <v>102.6140003337495</v>
       </c>
       <c r="K42" t="n">
-        <v>175.3836706878814</v>
+        <v>175.3836706878815</v>
       </c>
       <c r="L42" t="n">
         <v>235.8249889291244</v>
@@ -34228,19 +34228,19 @@
         <v>258.4142647093871</v>
       </c>
       <c r="P42" t="n">
-        <v>207.4002296332939</v>
+        <v>207.400229633294</v>
       </c>
       <c r="Q42" t="n">
         <v>138.6415610098624</v>
       </c>
       <c r="R42" t="n">
-        <v>67.4343711398987</v>
+        <v>67.43437113989872</v>
       </c>
       <c r="S42" t="n">
         <v>20.17410015381963</v>
       </c>
       <c r="T42" t="n">
-        <v>4.377803551678925</v>
+        <v>4.377803551678926</v>
       </c>
       <c r="U42" t="n">
         <v>0.07145490019062452</v>
@@ -34280,7 +34280,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.9105618975111271</v>
+        <v>0.9105618975111273</v>
       </c>
       <c r="H43" t="n">
         <v>8.095723052417119</v>
@@ -34289,7 +34289,7 @@
         <v>27.38307960878918</v>
       </c>
       <c r="J43" t="n">
-        <v>64.37672615403669</v>
+        <v>64.3767261540367</v>
       </c>
       <c r="K43" t="n">
         <v>105.7907368199291</v>
@@ -34310,7 +34310,7 @@
         <v>110.1283225862548</v>
       </c>
       <c r="Q43" t="n">
-        <v>76.24714216340902</v>
+        <v>76.24714216340904</v>
       </c>
       <c r="R43" t="n">
         <v>40.94217404627304</v>
@@ -34365,7 +34365,7 @@
         <v>20.78913893123931</v>
       </c>
       <c r="I44" t="n">
-        <v>78.25932172797305</v>
+        <v>78.25932172797347</v>
       </c>
       <c r="J44" t="n">
         <v>172.2887518970119</v>
@@ -35488,7 +35488,7 @@
         <v>21.22234434976014</v>
       </c>
       <c r="J12" t="n">
-        <v>82.00288600041613</v>
+        <v>308.741636174055</v>
       </c>
       <c r="K12" t="n">
         <v>152.9844368545481</v>
@@ -35500,7 +35500,7 @@
         <v>252.0998584218304</v>
       </c>
       <c r="N12" t="n">
-        <v>487.8759970536865</v>
+        <v>261.1372468800477</v>
       </c>
       <c r="O12" t="n">
         <v>235.2423749871648</v>
@@ -35567,13 +35567,13 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>43.73997017013481</v>
+        <v>122.4487748653074</v>
       </c>
       <c r="K13" t="n">
-        <v>84.8260823672171</v>
+        <v>334.6064956137041</v>
       </c>
       <c r="L13" t="n">
-        <v>288.5824344539117</v>
+        <v>113.4569607579076</v>
       </c>
       <c r="M13" t="n">
         <v>537.871882989202</v>
@@ -35582,7 +35582,7 @@
         <v>118.5919028498979</v>
       </c>
       <c r="O13" t="n">
-        <v>487.7220970932224</v>
+        <v>334.3583528475672</v>
       </c>
       <c r="P13" t="n">
         <v>403.6628800831245</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>43.71141918400954</v>
+        <v>43.71141918400951</v>
       </c>
       <c r="J14" t="n">
-        <v>142.8687924114254</v>
+        <v>142.8687924114253</v>
       </c>
       <c r="K14" t="n">
-        <v>222.4515770472152</v>
+        <v>222.4515770472151</v>
       </c>
       <c r="L14" t="n">
         <v>282.027959216741</v>
       </c>
       <c r="M14" t="n">
-        <v>319.0087118458361</v>
+        <v>319.008711845836</v>
       </c>
       <c r="N14" t="n">
-        <v>324.927923348721</v>
+        <v>324.9279233487209</v>
       </c>
       <c r="O14" t="n">
         <v>304.6313555079669</v>
       </c>
       <c r="P14" t="n">
-        <v>254.3327709602682</v>
+        <v>254.3327709602681</v>
       </c>
       <c r="Q14" t="n">
-        <v>183.0861762935706</v>
+        <v>183.0861762935705</v>
       </c>
       <c r="R14" t="n">
-        <v>92.48066619351911</v>
+        <v>92.48066619351908</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,34 +35722,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>21.22234434976015</v>
+        <v>44.91659267744888</v>
       </c>
       <c r="J15" t="n">
-        <v>82.00288600041615</v>
+        <v>82.00288600041613</v>
       </c>
       <c r="K15" t="n">
         <v>152.9844368545481</v>
       </c>
       <c r="L15" t="n">
-        <v>213.3099022148948</v>
+        <v>213.3099022148947</v>
       </c>
       <c r="M15" t="n">
         <v>252.0998584218304</v>
       </c>
       <c r="N15" t="n">
-        <v>261.1372468800478</v>
+        <v>261.1372468800477</v>
       </c>
       <c r="O15" t="n">
-        <v>235.2423749871649</v>
+        <v>235.2423749871648</v>
       </c>
       <c r="P15" t="n">
-        <v>185.6293884284653</v>
+        <v>185.6293884284652</v>
       </c>
       <c r="Q15" t="n">
-        <v>236.1125655360317</v>
+        <v>212.4183172083434</v>
       </c>
       <c r="R15" t="n">
-        <v>150.2821591042453</v>
+        <v>150.2821591042452</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,25 +35804,25 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>122.4487748653074</v>
+        <v>43.73997017013481</v>
       </c>
       <c r="K16" t="n">
-        <v>84.82608236721713</v>
+        <v>334.6064956137041</v>
       </c>
       <c r="L16" t="n">
-        <v>209.873629758739</v>
+        <v>493.647762365145</v>
       </c>
       <c r="M16" t="n">
-        <v>537.8718829892022</v>
+        <v>537.871882989202</v>
       </c>
       <c r="N16" t="n">
         <v>118.5919028498979</v>
       </c>
       <c r="O16" t="n">
-        <v>487.7220970932224</v>
+        <v>106.2045977970574</v>
       </c>
       <c r="P16" t="n">
-        <v>403.6628800831245</v>
+        <v>330.3346382215695</v>
       </c>
       <c r="Q16" t="n">
         <v>204.5301020025625</v>
@@ -35962,7 +35962,7 @@
         <v>44.91659267744888</v>
       </c>
       <c r="J18" t="n">
-        <v>285.0473878463662</v>
+        <v>178.5266804878755</v>
       </c>
       <c r="K18" t="n">
         <v>152.9844368545481</v>
@@ -35986,7 +35986,7 @@
         <v>115.8945227208838</v>
       </c>
       <c r="R18" t="n">
-        <v>43.76145174575454</v>
+        <v>150.2821591042452</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36044,7 +36044,7 @@
         <v>43.73997017013481</v>
       </c>
       <c r="K19" t="n">
-        <v>334.6064956137041</v>
+        <v>84.8260823672171</v>
       </c>
       <c r="L19" t="n">
         <v>493.647762365145</v>
@@ -36053,13 +36053,13 @@
         <v>537.871882989202</v>
       </c>
       <c r="N19" t="n">
-        <v>118.5919028498979</v>
+        <v>382.3444556974588</v>
       </c>
       <c r="O19" t="n">
-        <v>185.7788785394412</v>
+        <v>487.7220970932224</v>
       </c>
       <c r="P19" t="n">
-        <v>403.6628800831245</v>
+        <v>87.74752192826833</v>
       </c>
       <c r="Q19" t="n">
         <v>51.62757939862406</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>21.22234434976014</v>
+        <v>44.91659267744888</v>
       </c>
       <c r="J21" t="n">
         <v>82.00288600041613</v>
@@ -36211,19 +36211,19 @@
         <v>252.0998584218304</v>
       </c>
       <c r="N21" t="n">
-        <v>487.8759970536865</v>
+        <v>261.1372468800477</v>
       </c>
       <c r="O21" t="n">
         <v>235.2423749871648</v>
       </c>
       <c r="P21" t="n">
-        <v>185.6293884284652</v>
+        <v>282.1531829159248</v>
       </c>
       <c r="Q21" t="n">
         <v>115.8945227208838</v>
       </c>
       <c r="R21" t="n">
-        <v>43.76145174575454</v>
+        <v>150.2821591042452</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36284,19 +36284,19 @@
         <v>84.8260823672171</v>
       </c>
       <c r="L22" t="n">
-        <v>493.647762365145</v>
+        <v>113.4569607579076</v>
       </c>
       <c r="M22" t="n">
-        <v>120.1592764610993</v>
+        <v>537.871882989202</v>
       </c>
       <c r="N22" t="n">
         <v>520.6453602659385</v>
       </c>
       <c r="O22" t="n">
-        <v>219.6071135988786</v>
+        <v>487.7220970932224</v>
       </c>
       <c r="P22" t="n">
-        <v>403.6628800831245</v>
+        <v>98.02609166791567</v>
       </c>
       <c r="Q22" t="n">
         <v>204.5301020025625</v>
@@ -36433,13 +36433,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>21.22234434976015</v>
+        <v>44.91659267744888</v>
       </c>
       <c r="J24" t="n">
-        <v>308.7416361740547</v>
+        <v>82.00288600041615</v>
       </c>
       <c r="K24" t="n">
-        <v>152.9844368545481</v>
+        <v>356.028938700498</v>
       </c>
       <c r="L24" t="n">
         <v>213.3099022148948</v>
@@ -36515,16 +36515,16 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>122.4487748653074</v>
+        <v>43.73997017013482</v>
       </c>
       <c r="K25" t="n">
         <v>84.82608236721713</v>
       </c>
       <c r="L25" t="n">
-        <v>225.5327788708011</v>
+        <v>355.3468577966655</v>
       </c>
       <c r="M25" t="n">
-        <v>120.1592764610993</v>
+        <v>537.8718829892022</v>
       </c>
       <c r="N25" t="n">
         <v>520.6453602659385</v>
@@ -36533,10 +36533,10 @@
         <v>487.7220970932224</v>
       </c>
       <c r="P25" t="n">
-        <v>403.6628800831245</v>
+        <v>87.74752192826834</v>
       </c>
       <c r="Q25" t="n">
-        <v>204.5301020025625</v>
+        <v>51.62757939862408</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36673,7 +36673,7 @@
         <v>21.22234434976015</v>
       </c>
       <c r="J27" t="n">
-        <v>82.00288600041615</v>
+        <v>308.7416361740547</v>
       </c>
       <c r="K27" t="n">
         <v>152.9844368545481</v>
@@ -36691,13 +36691,13 @@
         <v>235.2423749871649</v>
       </c>
       <c r="P27" t="n">
-        <v>305.8474312436131</v>
+        <v>185.6293884284653</v>
       </c>
       <c r="Q27" t="n">
         <v>115.8945227208839</v>
       </c>
       <c r="R27" t="n">
-        <v>150.2821591042453</v>
+        <v>43.76145174575456</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,13 +36752,13 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>122.4487748653074</v>
+        <v>43.73997017013482</v>
       </c>
       <c r="K28" t="n">
         <v>84.82608236721713</v>
       </c>
       <c r="L28" t="n">
-        <v>113.4569607579077</v>
+        <v>355.3468577966655</v>
       </c>
       <c r="M28" t="n">
         <v>537.8718829892022</v>
@@ -36767,13 +36767,13 @@
         <v>520.6453602659385</v>
       </c>
       <c r="O28" t="n">
-        <v>182.0853086780133</v>
+        <v>487.7220970932224</v>
       </c>
       <c r="P28" t="n">
-        <v>403.6628800831245</v>
+        <v>87.74752192826834</v>
       </c>
       <c r="Q28" t="n">
-        <v>204.5301020025625</v>
+        <v>51.62757939862408</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,7 +36834,7 @@
         <v>142.8687924114254</v>
       </c>
       <c r="K29" t="n">
-        <v>222.4515770472154</v>
+        <v>222.4515770472152</v>
       </c>
       <c r="L29" t="n">
         <v>282.027959216741</v>
@@ -36907,10 +36907,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>21.22234434976015</v>
+        <v>44.91659267744888</v>
       </c>
       <c r="J30" t="n">
-        <v>82.00288600041615</v>
+        <v>285.047387846366</v>
       </c>
       <c r="K30" t="n">
         <v>152.9844368545481</v>
@@ -36928,13 +36928,13 @@
         <v>235.2423749871649</v>
       </c>
       <c r="P30" t="n">
-        <v>305.8474312436131</v>
+        <v>185.6293884284653</v>
       </c>
       <c r="Q30" t="n">
         <v>115.8945227208839</v>
       </c>
       <c r="R30" t="n">
-        <v>150.2821591042453</v>
+        <v>43.76145174575456</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>122.4487748653074</v>
+        <v>43.73997017013482</v>
       </c>
       <c r="K31" t="n">
-        <v>334.6064956137041</v>
+        <v>84.82608236721713</v>
       </c>
       <c r="L31" t="n">
-        <v>341.6107158084172</v>
+        <v>355.346857796666</v>
       </c>
       <c r="M31" t="n">
         <v>537.8718829892022</v>
       </c>
       <c r="N31" t="n">
-        <v>118.5919028498979</v>
+        <v>520.6453602659385</v>
       </c>
       <c r="O31" t="n">
-        <v>106.2045977970575</v>
+        <v>487.7220970932224</v>
       </c>
       <c r="P31" t="n">
-        <v>403.6628800831245</v>
+        <v>87.74752192826834</v>
       </c>
       <c r="Q31" t="n">
-        <v>204.5301020025625</v>
+        <v>51.62757939862408</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37071,7 +37071,7 @@
         <v>142.8687924114254</v>
       </c>
       <c r="K32" t="n">
-        <v>222.4515770472154</v>
+        <v>222.4515770472152</v>
       </c>
       <c r="L32" t="n">
         <v>282.027959216741</v>
@@ -37144,10 +37144,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>21.22234434976015</v>
+        <v>44.91659267744888</v>
       </c>
       <c r="J33" t="n">
-        <v>82.00288600041615</v>
+        <v>178.5266804878753</v>
       </c>
       <c r="K33" t="n">
         <v>152.9844368545481</v>
@@ -37165,7 +37165,7 @@
         <v>235.2423749871649</v>
       </c>
       <c r="P33" t="n">
-        <v>305.8474312436131</v>
+        <v>185.6293884284653</v>
       </c>
       <c r="Q33" t="n">
         <v>115.8945227208839</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>43.73997017013482</v>
+        <v>122.4487748653074</v>
       </c>
       <c r="K34" t="n">
-        <v>297.473360984087</v>
+        <v>334.6064956137041</v>
       </c>
       <c r="L34" t="n">
         <v>493.647762365145</v>
@@ -37241,7 +37241,7 @@
         <v>118.5919028498979</v>
       </c>
       <c r="O34" t="n">
-        <v>487.7220970932224</v>
+        <v>371.8801577684325</v>
       </c>
       <c r="P34" t="n">
         <v>403.6628800831245</v>
@@ -37381,10 +37381,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>21.22234434976015</v>
+        <v>44.91659267744888</v>
       </c>
       <c r="J36" t="n">
-        <v>308.7416361740547</v>
+        <v>178.5266804878753</v>
       </c>
       <c r="K36" t="n">
         <v>152.9844368545481</v>
@@ -37408,7 +37408,7 @@
         <v>115.8945227208839</v>
       </c>
       <c r="R36" t="n">
-        <v>43.76145174575456</v>
+        <v>150.2821591042453</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>122.4487748653074</v>
+        <v>43.73997017013482</v>
       </c>
       <c r="K37" t="n">
-        <v>334.6064956137041</v>
+        <v>84.82608236721713</v>
       </c>
       <c r="L37" t="n">
-        <v>493.647762365145</v>
+        <v>355.346857796666</v>
       </c>
       <c r="M37" t="n">
-        <v>120.1592764610993</v>
+        <v>537.8718829892022</v>
       </c>
       <c r="N37" t="n">
         <v>520.6453602659385</v>
       </c>
       <c r="O37" t="n">
-        <v>438.6445811111865</v>
+        <v>487.7220970932224</v>
       </c>
       <c r="P37" t="n">
         <v>87.74752192826834</v>
@@ -37621,7 +37621,7 @@
         <v>21.22234434976015</v>
       </c>
       <c r="J39" t="n">
-        <v>82.00288600041615</v>
+        <v>308.7416361740547</v>
       </c>
       <c r="K39" t="n">
         <v>152.9844368545481</v>
@@ -37636,7 +37636,7 @@
         <v>261.1372468800478</v>
       </c>
       <c r="O39" t="n">
-        <v>461.9811251608034</v>
+        <v>235.2423749871649</v>
       </c>
       <c r="P39" t="n">
         <v>185.6293884284653</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>122.4487748653074</v>
+        <v>43.73997017013482</v>
       </c>
       <c r="K40" t="n">
-        <v>334.6064956137041</v>
+        <v>84.82608236721713</v>
       </c>
       <c r="L40" t="n">
         <v>493.647762365145</v>
       </c>
       <c r="M40" t="n">
-        <v>120.1592764610993</v>
+        <v>537.8718829892022</v>
       </c>
       <c r="N40" t="n">
-        <v>318.6653216799641</v>
+        <v>520.6453602659385</v>
       </c>
       <c r="O40" t="n">
-        <v>487.7220970932224</v>
+        <v>349.4211925247431</v>
       </c>
       <c r="P40" t="n">
         <v>87.74752192826834</v>
       </c>
       <c r="Q40" t="n">
-        <v>204.5301020025625</v>
+        <v>51.62757939862408</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37785,16 +37785,16 @@
         <v>222.4515770472152</v>
       </c>
       <c r="L41" t="n">
-        <v>282.027959216741</v>
+        <v>282.0279592167411</v>
       </c>
       <c r="M41" t="n">
-        <v>319.0087118458361</v>
+        <v>319.0087118458362</v>
       </c>
       <c r="N41" t="n">
-        <v>324.927923348721</v>
+        <v>324.9279233487211</v>
       </c>
       <c r="O41" t="n">
-        <v>304.6313555079669</v>
+        <v>304.631355507967</v>
       </c>
       <c r="P41" t="n">
         <v>254.3327709602682</v>
@@ -37855,10 +37855,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>21.22234434976015</v>
+        <v>44.91659267744889</v>
       </c>
       <c r="J42" t="n">
-        <v>82.00288600041615</v>
+        <v>82.00288600041617</v>
       </c>
       <c r="K42" t="n">
         <v>152.9844368545481</v>
@@ -37867,10 +37867,10 @@
         <v>213.3099022148948</v>
       </c>
       <c r="M42" t="n">
-        <v>252.0998584218304</v>
+        <v>252.0998584218305</v>
       </c>
       <c r="N42" t="n">
-        <v>487.8759970536863</v>
+        <v>261.1372468800478</v>
       </c>
       <c r="O42" t="n">
         <v>235.2423749871649</v>
@@ -37879,10 +37879,10 @@
         <v>185.6293884284653</v>
       </c>
       <c r="Q42" t="n">
-        <v>115.8945227208839</v>
+        <v>212.4183172083429</v>
       </c>
       <c r="R42" t="n">
-        <v>43.76145174575456</v>
+        <v>150.2821591042453</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>43.73997017013482</v>
+        <v>43.73997017013484</v>
       </c>
       <c r="K43" t="n">
-        <v>84.82608236721713</v>
+        <v>334.6064956137041</v>
       </c>
       <c r="L43" t="n">
-        <v>493.647762365145</v>
+        <v>113.4569607579077</v>
       </c>
       <c r="M43" t="n">
         <v>537.8718829892022</v>
       </c>
       <c r="N43" t="n">
-        <v>118.5919028498979</v>
+        <v>520.6453602659385</v>
       </c>
       <c r="O43" t="n">
-        <v>487.7220970932224</v>
+        <v>479.8315808854942</v>
       </c>
       <c r="P43" t="n">
-        <v>198.5975521718912</v>
+        <v>87.74752192826836</v>
       </c>
       <c r="Q43" t="n">
-        <v>204.5301020025625</v>
+        <v>51.62757939862409</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38013,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>43.71141918400954</v>
+        <v>43.71141918400997</v>
       </c>
       <c r="J44" t="n">
         <v>142.8687924114254</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>21.22234434976016</v>
+        <v>44.91659267744889</v>
       </c>
       <c r="J45" t="n">
         <v>82.00288600041617</v>
@@ -38101,7 +38101,7 @@
         <v>152.9844368545481</v>
       </c>
       <c r="L45" t="n">
-        <v>440.0486523885334</v>
+        <v>213.3099022148948</v>
       </c>
       <c r="M45" t="n">
         <v>252.0998584218305</v>
@@ -38116,10 +38116,10 @@
         <v>185.6293884284653</v>
       </c>
       <c r="Q45" t="n">
-        <v>115.8945227208839</v>
+        <v>212.4183172083429</v>
       </c>
       <c r="R45" t="n">
-        <v>43.76145174575457</v>
+        <v>150.2821591042453</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38177,25 +38177,25 @@
         <v>43.73997017013484</v>
       </c>
       <c r="K46" t="n">
-        <v>297.4733609840873</v>
+        <v>84.82608236721714</v>
       </c>
       <c r="L46" t="n">
-        <v>493.647762365145</v>
+        <v>420.9489989379751</v>
       </c>
       <c r="M46" t="n">
-        <v>120.1592764610993</v>
+        <v>537.8718829892022</v>
       </c>
       <c r="N46" t="n">
-        <v>118.5919028498979</v>
+        <v>520.6453602659385</v>
       </c>
       <c r="O46" t="n">
-        <v>487.7220970932224</v>
+        <v>106.2045977970575</v>
       </c>
       <c r="P46" t="n">
         <v>403.6628800831245</v>
       </c>
       <c r="Q46" t="n">
-        <v>204.5301020025625</v>
+        <v>51.62757939862409</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
